--- a/data/output/FV2310_FV2304/UTILMD/55076.xlsx
+++ b/data/output/FV2310_FV2304/UTILMD/55076.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6145" uniqueCount="436">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6166" uniqueCount="436">
+  <si>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1457,6 +1457,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U294" totalsRowShown="0">
+  <autoFilter ref="A1:U294"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2304"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="3" name="Segment_FV2304"/>
+    <tableColumn id="4" name="Datenelement_FV2304"/>
+    <tableColumn id="5" name="Segment ID_FV2304"/>
+    <tableColumn id="6" name="Code_FV2304"/>
+    <tableColumn id="7" name="Qualifier_FV2304"/>
+    <tableColumn id="8" name="Beschreibung_FV2304"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="10" name="Bedingung_FV2304"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2310"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="14" name="Segment_FV2310"/>
+    <tableColumn id="15" name="Datenelement_FV2310"/>
+    <tableColumn id="16" name="Segment ID_FV2310"/>
+    <tableColumn id="17" name="Code_FV2310"/>
+    <tableColumn id="18" name="Qualifier_FV2310"/>
+    <tableColumn id="19" name="Beschreibung_FV2310"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="21" name="Bedingung_FV2310"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1746,7 +1776,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U294"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -15055,5 +15088,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2310_FV2304/UTILMD/55076.xlsx
+++ b/data/output/FV2310_FV2304/UTILMD/55076.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7307" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6869" uniqueCount="721">
   <si>
     <t>#</t>
   </si>
@@ -5905,44 +5905,42 @@
       </c>
     </row>
     <row r="70" spans="1:22">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5" t="s">
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K70" s="5"/>
-      <c r="L70" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M70" s="5" t="s">
+      <c r="K70" s="2"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N70" s="5" t="s">
+      <c r="N70" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5" t="s">
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V70" s="5"/>
+      <c r="V70" s="2"/>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="5" t="s">
@@ -5966,9 +5964,7 @@
         <v>348</v>
       </c>
       <c r="K71" s="5"/>
-      <c r="L71" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L71" s="4"/>
       <c r="M71" s="5" t="s">
         <v>34</v>
       </c>
@@ -6016,9 +6012,7 @@
         <v>349</v>
       </c>
       <c r="K72" s="5"/>
-      <c r="L72" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L72" s="4"/>
       <c r="M72" s="5" t="s">
         <v>34</v>
       </c>
@@ -6072,9 +6066,7 @@
         <v>349</v>
       </c>
       <c r="K73" s="5"/>
-      <c r="L73" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L73" s="4"/>
       <c r="M73" s="5" t="s">
         <v>34</v>
       </c>
@@ -6101,44 +6093,42 @@
       <c r="V73" s="5"/>
     </row>
     <row r="74" spans="1:22">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5" t="s">
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K74" s="5"/>
-      <c r="L74" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M74" s="5" t="s">
+      <c r="K74" s="2"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N74" s="5" t="s">
+      <c r="N74" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="5"/>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
-      <c r="U74" s="5" t="s">
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V74" s="5"/>
+      <c r="V74" s="2"/>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="5" t="s">
@@ -6162,9 +6152,7 @@
         <v>348</v>
       </c>
       <c r="K75" s="5"/>
-      <c r="L75" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L75" s="4"/>
       <c r="M75" s="5" t="s">
         <v>35</v>
       </c>
@@ -6212,9 +6200,7 @@
         <v>349</v>
       </c>
       <c r="K76" s="5"/>
-      <c r="L76" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L76" s="4"/>
       <c r="M76" s="5" t="s">
         <v>35</v>
       </c>
@@ -6266,9 +6252,7 @@
         <v>349</v>
       </c>
       <c r="K77" s="5"/>
-      <c r="L77" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L77" s="4"/>
       <c r="M77" s="5" t="s">
         <v>35</v>
       </c>
@@ -6293,46 +6277,44 @@
       <c r="V77" s="5"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5" t="s">
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="K78" s="5" t="s">
+      <c r="K78" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="L78" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M78" s="5" t="s">
+      <c r="L78" s="4"/>
+      <c r="M78" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N78" s="5" t="s">
+      <c r="N78" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5" t="s">
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="V78" s="5" t="s">
+      <c r="V78" s="2" t="s">
         <v>390</v>
       </c>
     </row>
@@ -6358,9 +6340,7 @@
         <v>348</v>
       </c>
       <c r="K79" s="5"/>
-      <c r="L79" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L79" s="4"/>
       <c r="M79" s="5" t="s">
         <v>36</v>
       </c>
@@ -6408,9 +6388,7 @@
         <v>349</v>
       </c>
       <c r="K80" s="5"/>
-      <c r="L80" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L80" s="4"/>
       <c r="M80" s="5" t="s">
         <v>36</v>
       </c>
@@ -6437,48 +6415,46 @@
       <c r="V80" s="5"/>
     </row>
     <row r="81" spans="1:22">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5" t="s">
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K81" s="5"/>
-      <c r="L81" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M81" s="5" t="s">
+      <c r="K81" s="2"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N81" s="5" t="s">
+      <c r="N81" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O81" s="5" t="s">
+      <c r="O81" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="5"/>
-      <c r="U81" s="5" t="s">
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V81" s="5"/>
+      <c r="V81" s="2"/>
     </row>
     <row r="82" spans="1:22">
       <c r="A82" s="5" t="s">
@@ -6508,9 +6484,7 @@
         <v>349</v>
       </c>
       <c r="K82" s="5"/>
-      <c r="L82" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L82" s="4"/>
       <c r="M82" s="5" t="s">
         <v>37</v>
       </c>
@@ -6564,9 +6538,7 @@
       <c r="K83" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="L83" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L83" s="4"/>
       <c r="M83" s="5" t="s">
         <v>37</v>
       </c>
@@ -6593,46 +6565,44 @@
       </c>
     </row>
     <row r="84" spans="1:22">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5" t="s">
+      <c r="C84" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K84" s="5" t="s">
+      <c r="K84" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="L84" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M84" s="5" t="s">
+      <c r="L84" s="4"/>
+      <c r="M84" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N84" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O84" s="5"/>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
-      <c r="U84" s="5" t="s">
+      <c r="N84" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V84" s="5" t="s">
+      <c r="V84" s="2" t="s">
         <v>395</v>
       </c>
     </row>
@@ -6658,9 +6628,7 @@
         <v>348</v>
       </c>
       <c r="K85" s="5"/>
-      <c r="L85" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L85" s="4"/>
       <c r="M85" s="5" t="s">
         <v>38</v>
       </c>
@@ -6708,9 +6676,7 @@
         <v>349</v>
       </c>
       <c r="K86" s="5"/>
-      <c r="L86" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L86" s="4"/>
       <c r="M86" s="5" t="s">
         <v>38</v>
       </c>
@@ -6737,48 +6703,46 @@
       <c r="V86" s="5"/>
     </row>
     <row r="87" spans="1:22">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D87" s="5" t="s">
+      <c r="C87" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5" t="s">
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K87" s="5"/>
-      <c r="L87" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M87" s="5" t="s">
+      <c r="K87" s="2"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N87" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O87" s="5" t="s">
+      <c r="N87" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O87" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="5"/>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
-      <c r="U87" s="5" t="s">
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V87" s="5"/>
+      <c r="V87" s="2"/>
     </row>
     <row r="88" spans="1:22">
       <c r="A88" s="5" t="s">
@@ -6808,9 +6772,7 @@
         <v>349</v>
       </c>
       <c r="K88" s="5"/>
-      <c r="L88" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L88" s="4"/>
       <c r="M88" s="5" t="s">
         <v>39</v>
       </c>
@@ -6864,9 +6826,7 @@
       <c r="K89" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="L89" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L89" s="4"/>
       <c r="M89" s="5" t="s">
         <v>39</v>
       </c>
@@ -6893,46 +6853,44 @@
       </c>
     </row>
     <row r="90" spans="1:22">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5" t="s">
+      <c r="C90" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="K90" s="5" t="s">
+      <c r="K90" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="L90" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M90" s="5" t="s">
+      <c r="L90" s="4"/>
+      <c r="M90" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N90" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O90" s="5"/>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
-      <c r="T90" s="5"/>
-      <c r="U90" s="5" t="s">
+      <c r="N90" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="V90" s="5" t="s">
+      <c r="V90" s="2" t="s">
         <v>397</v>
       </c>
     </row>
@@ -6958,9 +6916,7 @@
         <v>348</v>
       </c>
       <c r="K91" s="5"/>
-      <c r="L91" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L91" s="4"/>
       <c r="M91" s="5" t="s">
         <v>40</v>
       </c>
@@ -7008,9 +6964,7 @@
         <v>349</v>
       </c>
       <c r="K92" s="5"/>
-      <c r="L92" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L92" s="4"/>
       <c r="M92" s="5" t="s">
         <v>40</v>
       </c>
@@ -7062,9 +7016,7 @@
         <v>349</v>
       </c>
       <c r="K93" s="5"/>
-      <c r="L93" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L93" s="4"/>
       <c r="M93" s="5" t="s">
         <v>40</v>
       </c>
@@ -7089,46 +7041,44 @@
       <c r="V93" s="5"/>
     </row>
     <row r="94" spans="1:22">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5" t="s">
+      <c r="C94" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="K94" s="5" t="s">
+      <c r="K94" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="L94" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M94" s="5" t="s">
+      <c r="L94" s="4"/>
+      <c r="M94" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N94" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O94" s="5"/>
-      <c r="P94" s="5"/>
-      <c r="Q94" s="5"/>
-      <c r="R94" s="5"/>
-      <c r="S94" s="5"/>
-      <c r="T94" s="5"/>
-      <c r="U94" s="5" t="s">
+      <c r="N94" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="V94" s="5" t="s">
+      <c r="V94" s="2" t="s">
         <v>390</v>
       </c>
     </row>
@@ -7154,9 +7104,7 @@
         <v>348</v>
       </c>
       <c r="K95" s="5"/>
-      <c r="L95" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L95" s="4"/>
       <c r="M95" s="5" t="s">
         <v>41</v>
       </c>
@@ -7204,9 +7152,7 @@
         <v>349</v>
       </c>
       <c r="K96" s="5"/>
-      <c r="L96" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L96" s="4"/>
       <c r="M96" s="5" t="s">
         <v>41</v>
       </c>
@@ -7260,9 +7206,7 @@
         <v>349</v>
       </c>
       <c r="K97" s="5"/>
-      <c r="L97" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L97" s="4"/>
       <c r="M97" s="5" t="s">
         <v>41</v>
       </c>
@@ -7310,9 +7254,7 @@
         <v>348</v>
       </c>
       <c r="K98" s="5"/>
-      <c r="L98" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L98" s="4"/>
       <c r="M98" s="5" t="s">
         <v>41</v>
       </c>
@@ -7358,9 +7300,7 @@
         <v>349</v>
       </c>
       <c r="K99" s="5"/>
-      <c r="L99" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L99" s="4"/>
       <c r="M99" s="5" t="s">
         <v>41</v>
       </c>
@@ -7385,44 +7325,42 @@
       <c r="V99" s="5"/>
     </row>
     <row r="100" spans="1:22">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5" t="s">
+      <c r="C100" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K100" s="5"/>
-      <c r="L100" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M100" s="5" t="s">
+      <c r="K100" s="2"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N100" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O100" s="5"/>
-      <c r="P100" s="5"/>
-      <c r="Q100" s="5"/>
-      <c r="R100" s="5"/>
-      <c r="S100" s="5"/>
-      <c r="T100" s="5"/>
-      <c r="U100" s="5" t="s">
+      <c r="N100" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V100" s="5"/>
+      <c r="V100" s="2"/>
     </row>
     <row r="101" spans="1:22">
       <c r="A101" s="5" t="s">
@@ -7446,9 +7384,7 @@
         <v>348</v>
       </c>
       <c r="K101" s="5"/>
-      <c r="L101" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L101" s="4"/>
       <c r="M101" s="5" t="s">
         <v>42</v>
       </c>
@@ -7496,9 +7432,7 @@
         <v>349</v>
       </c>
       <c r="K102" s="5"/>
-      <c r="L102" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L102" s="4"/>
       <c r="M102" s="5" t="s">
         <v>42</v>
       </c>
@@ -7525,48 +7459,46 @@
       <c r="V102" s="5"/>
     </row>
     <row r="103" spans="1:22">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C103" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D103" s="5" t="s">
+      <c r="C103" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5" t="s">
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K103" s="5"/>
-      <c r="L103" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M103" s="5" t="s">
+      <c r="K103" s="2"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N103" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O103" s="5" t="s">
+      <c r="N103" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O103" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P103" s="5"/>
-      <c r="Q103" s="5"/>
-      <c r="R103" s="5"/>
-      <c r="S103" s="5"/>
-      <c r="T103" s="5"/>
-      <c r="U103" s="5" t="s">
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V103" s="5"/>
+      <c r="V103" s="2"/>
     </row>
     <row r="104" spans="1:22">
       <c r="A104" s="5" t="s">
@@ -7596,9 +7528,7 @@
         <v>349</v>
       </c>
       <c r="K104" s="5"/>
-      <c r="L104" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L104" s="4"/>
       <c r="M104" s="5" t="s">
         <v>43</v>
       </c>
@@ -7652,9 +7582,7 @@
         <v>349</v>
       </c>
       <c r="K105" s="5"/>
-      <c r="L105" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L105" s="4"/>
       <c r="M105" s="5" t="s">
         <v>43</v>
       </c>
@@ -7708,9 +7636,7 @@
         <v>349</v>
       </c>
       <c r="K106" s="5"/>
-      <c r="L106" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L106" s="4"/>
       <c r="M106" s="5" t="s">
         <v>43</v>
       </c>
@@ -7764,9 +7690,7 @@
         <v>349</v>
       </c>
       <c r="K107" s="5"/>
-      <c r="L107" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L107" s="4"/>
       <c r="M107" s="5" t="s">
         <v>43</v>
       </c>
@@ -7820,9 +7744,7 @@
         <v>349</v>
       </c>
       <c r="K108" s="5"/>
-      <c r="L108" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L108" s="4"/>
       <c r="M108" s="5" t="s">
         <v>43</v>
       </c>
@@ -7849,44 +7771,42 @@
       <c r="V108" s="5"/>
     </row>
     <row r="109" spans="1:22">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5" t="s">
+      <c r="C109" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K109" s="5"/>
-      <c r="L109" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M109" s="5" t="s">
+      <c r="K109" s="2"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N109" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O109" s="5"/>
-      <c r="P109" s="5"/>
-      <c r="Q109" s="5"/>
-      <c r="R109" s="5"/>
-      <c r="S109" s="5"/>
-      <c r="T109" s="5"/>
-      <c r="U109" s="5" t="s">
+      <c r="N109" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V109" s="5"/>
+      <c r="V109" s="2"/>
     </row>
     <row r="110" spans="1:22">
       <c r="A110" s="5" t="s">
@@ -7910,9 +7830,7 @@
         <v>348</v>
       </c>
       <c r="K110" s="5"/>
-      <c r="L110" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L110" s="4"/>
       <c r="M110" s="5" t="s">
         <v>44</v>
       </c>
@@ -7960,9 +7878,7 @@
         <v>349</v>
       </c>
       <c r="K111" s="5"/>
-      <c r="L111" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L111" s="4"/>
       <c r="M111" s="5" t="s">
         <v>44</v>
       </c>
@@ -8016,9 +7932,7 @@
         <v>349</v>
       </c>
       <c r="K112" s="5"/>
-      <c r="L112" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L112" s="4"/>
       <c r="M112" s="5" t="s">
         <v>44</v>
       </c>
@@ -8072,9 +7986,7 @@
         <v>349</v>
       </c>
       <c r="K113" s="5"/>
-      <c r="L113" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L113" s="4"/>
       <c r="M113" s="5" t="s">
         <v>44</v>
       </c>
@@ -8128,9 +8040,7 @@
         <v>349</v>
       </c>
       <c r="K114" s="5"/>
-      <c r="L114" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L114" s="4"/>
       <c r="M114" s="5" t="s">
         <v>44</v>
       </c>
@@ -8184,9 +8094,7 @@
         <v>349</v>
       </c>
       <c r="K115" s="5"/>
-      <c r="L115" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L115" s="4"/>
       <c r="M115" s="5" t="s">
         <v>44</v>
       </c>
@@ -8240,9 +8148,7 @@
         <v>349</v>
       </c>
       <c r="K116" s="5"/>
-      <c r="L116" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L116" s="4"/>
       <c r="M116" s="5" t="s">
         <v>44</v>
       </c>
@@ -8296,9 +8202,7 @@
         <v>349</v>
       </c>
       <c r="K117" s="5"/>
-      <c r="L117" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L117" s="4"/>
       <c r="M117" s="5" t="s">
         <v>44</v>
       </c>
@@ -8325,46 +8229,44 @@
       <c r="V117" s="5"/>
     </row>
     <row r="118" spans="1:22">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C118" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
-      <c r="J118" s="5" t="s">
+      <c r="C118" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="K118" s="5" t="s">
+      <c r="K118" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="L118" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M118" s="5" t="s">
+      <c r="L118" s="4"/>
+      <c r="M118" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N118" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O118" s="5"/>
-      <c r="P118" s="5"/>
-      <c r="Q118" s="5"/>
-      <c r="R118" s="5"/>
-      <c r="S118" s="5"/>
-      <c r="T118" s="5"/>
-      <c r="U118" s="5" t="s">
+      <c r="N118" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
+      <c r="T118" s="2"/>
+      <c r="U118" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="V118" s="5" t="s">
+      <c r="V118" s="2" t="s">
         <v>398</v>
       </c>
     </row>
@@ -8390,9 +8292,7 @@
         <v>348</v>
       </c>
       <c r="K119" s="5"/>
-      <c r="L119" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L119" s="4"/>
       <c r="M119" s="5" t="s">
         <v>45</v>
       </c>
@@ -8440,9 +8340,7 @@
         <v>349</v>
       </c>
       <c r="K120" s="5"/>
-      <c r="L120" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L120" s="4"/>
       <c r="M120" s="5" t="s">
         <v>45</v>
       </c>
@@ -8494,9 +8392,7 @@
         <v>349</v>
       </c>
       <c r="K121" s="5"/>
-      <c r="L121" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L121" s="4"/>
       <c r="M121" s="5" t="s">
         <v>45</v>
       </c>
@@ -8548,9 +8444,7 @@
         <v>349</v>
       </c>
       <c r="K122" s="5"/>
-      <c r="L122" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L122" s="4"/>
       <c r="M122" s="5" t="s">
         <v>45</v>
       </c>
@@ -8604,9 +8498,7 @@
         <v>349</v>
       </c>
       <c r="K123" s="5"/>
-      <c r="L123" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L123" s="4"/>
       <c r="M123" s="5" t="s">
         <v>45</v>
       </c>
@@ -8633,46 +8525,44 @@
       <c r="V123" s="5"/>
     </row>
     <row r="124" spans="1:22">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="5"/>
-      <c r="J124" s="5" t="s">
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K124" s="5" t="s">
+      <c r="K124" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="L124" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M124" s="5" t="s">
+      <c r="L124" s="4"/>
+      <c r="M124" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N124" s="5" t="s">
+      <c r="N124" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O124" s="5"/>
-      <c r="P124" s="5"/>
-      <c r="Q124" s="5"/>
-      <c r="R124" s="5"/>
-      <c r="S124" s="5"/>
-      <c r="T124" s="5"/>
-      <c r="U124" s="5" t="s">
+      <c r="O124" s="2"/>
+      <c r="P124" s="2"/>
+      <c r="Q124" s="2"/>
+      <c r="R124" s="2"/>
+      <c r="S124" s="2"/>
+      <c r="T124" s="2"/>
+      <c r="U124" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V124" s="5" t="s">
+      <c r="V124" s="2" t="s">
         <v>395</v>
       </c>
     </row>
@@ -8698,9 +8588,7 @@
         <v>348</v>
       </c>
       <c r="K125" s="5"/>
-      <c r="L125" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L125" s="4"/>
       <c r="M125" s="5" t="s">
         <v>46</v>
       </c>
@@ -8748,9 +8636,7 @@
         <v>349</v>
       </c>
       <c r="K126" s="5"/>
-      <c r="L126" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L126" s="4"/>
       <c r="M126" s="5" t="s">
         <v>46</v>
       </c>
@@ -8777,48 +8663,46 @@
       <c r="V126" s="5"/>
     </row>
     <row r="127" spans="1:22">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="C127" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D127" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="5"/>
-      <c r="J127" s="5" t="s">
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K127" s="5"/>
-      <c r="L127" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M127" s="5" t="s">
+      <c r="K127" s="2"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N127" s="5" t="s">
+      <c r="N127" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O127" s="5" t="s">
+      <c r="O127" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P127" s="5"/>
-      <c r="Q127" s="5"/>
-      <c r="R127" s="5"/>
-      <c r="S127" s="5"/>
-      <c r="T127" s="5"/>
-      <c r="U127" s="5" t="s">
+      <c r="P127" s="2"/>
+      <c r="Q127" s="2"/>
+      <c r="R127" s="2"/>
+      <c r="S127" s="2"/>
+      <c r="T127" s="2"/>
+      <c r="U127" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V127" s="5"/>
+      <c r="V127" s="2"/>
     </row>
     <row r="128" spans="1:22">
       <c r="A128" s="5" t="s">
@@ -8848,9 +8732,7 @@
         <v>349</v>
       </c>
       <c r="K128" s="5"/>
-      <c r="L128" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L128" s="4"/>
       <c r="M128" s="5" t="s">
         <v>37</v>
       </c>
@@ -8904,9 +8786,7 @@
       <c r="K129" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="L129" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L129" s="4"/>
       <c r="M129" s="5" t="s">
         <v>37</v>
       </c>
@@ -8933,48 +8813,46 @@
       </c>
     </row>
     <row r="130" spans="1:22">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="C130" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D130" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
-      <c r="J130" s="5" t="s">
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K130" s="5"/>
-      <c r="L130" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M130" s="5" t="s">
+      <c r="K130" s="2"/>
+      <c r="L130" s="4"/>
+      <c r="M130" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N130" s="5" t="s">
+      <c r="N130" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O130" s="5" t="s">
+      <c r="O130" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P130" s="5"/>
-      <c r="Q130" s="5"/>
-      <c r="R130" s="5"/>
-      <c r="S130" s="5"/>
-      <c r="T130" s="5"/>
-      <c r="U130" s="5" t="s">
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+      <c r="R130" s="2"/>
+      <c r="S130" s="2"/>
+      <c r="T130" s="2"/>
+      <c r="U130" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V130" s="5"/>
+      <c r="V130" s="2"/>
     </row>
     <row r="131" spans="1:22">
       <c r="A131" s="5" t="s">
@@ -9004,9 +8882,7 @@
         <v>349</v>
       </c>
       <c r="K131" s="5"/>
-      <c r="L131" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L131" s="4"/>
       <c r="M131" s="5" t="s">
         <v>47</v>
       </c>
@@ -9060,9 +8936,7 @@
       <c r="K132" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="L132" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L132" s="4"/>
       <c r="M132" s="5" t="s">
         <v>47</v>
       </c>
@@ -9116,9 +8990,7 @@
         <v>349</v>
       </c>
       <c r="K133" s="5"/>
-      <c r="L133" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L133" s="4"/>
       <c r="M133" s="5" t="s">
         <v>47</v>
       </c>
@@ -9210,9 +9082,7 @@
         <v>348</v>
       </c>
       <c r="K135" s="5"/>
-      <c r="L135" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L135" s="4"/>
       <c r="M135" s="5" t="s">
         <v>48</v>
       </c>
@@ -9260,9 +9130,7 @@
         <v>349</v>
       </c>
       <c r="K136" s="5"/>
-      <c r="L136" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L136" s="4"/>
       <c r="M136" s="5" t="s">
         <v>48</v>
       </c>
@@ -9289,48 +9157,46 @@
       <c r="V136" s="5"/>
     </row>
     <row r="137" spans="1:22">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="C137" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="D137" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
-      <c r="J137" s="5" t="s">
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K137" s="5"/>
-      <c r="L137" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M137" s="5" t="s">
+      <c r="K137" s="2"/>
+      <c r="L137" s="4"/>
+      <c r="M137" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N137" s="5" t="s">
+      <c r="N137" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O137" s="5" t="s">
+      <c r="O137" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P137" s="5"/>
-      <c r="Q137" s="5"/>
-      <c r="R137" s="5"/>
-      <c r="S137" s="5"/>
-      <c r="T137" s="5"/>
-      <c r="U137" s="5" t="s">
+      <c r="P137" s="2"/>
+      <c r="Q137" s="2"/>
+      <c r="R137" s="2"/>
+      <c r="S137" s="2"/>
+      <c r="T137" s="2"/>
+      <c r="U137" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V137" s="5"/>
+      <c r="V137" s="2"/>
     </row>
     <row r="138" spans="1:22">
       <c r="A138" s="5" t="s">
@@ -9360,9 +9226,7 @@
         <v>349</v>
       </c>
       <c r="K138" s="5"/>
-      <c r="L138" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L138" s="4"/>
       <c r="M138" s="5" t="s">
         <v>49</v>
       </c>
@@ -9416,9 +9280,7 @@
       <c r="K139" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="L139" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L139" s="4"/>
       <c r="M139" s="5" t="s">
         <v>49</v>
       </c>
@@ -9445,46 +9307,44 @@
       </c>
     </row>
     <row r="140" spans="1:22">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="C140" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="5"/>
-      <c r="J140" s="5" t="s">
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="K140" s="5" t="s">
+      <c r="K140" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="L140" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M140" s="5" t="s">
+      <c r="L140" s="4"/>
+      <c r="M140" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N140" s="5" t="s">
+      <c r="N140" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="O140" s="5"/>
-      <c r="P140" s="5"/>
-      <c r="Q140" s="5"/>
-      <c r="R140" s="5"/>
-      <c r="S140" s="5"/>
-      <c r="T140" s="5"/>
-      <c r="U140" s="5" t="s">
+      <c r="O140" s="2"/>
+      <c r="P140" s="2"/>
+      <c r="Q140" s="2"/>
+      <c r="R140" s="2"/>
+      <c r="S140" s="2"/>
+      <c r="T140" s="2"/>
+      <c r="U140" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="V140" s="5" t="s">
+      <c r="V140" s="2" t="s">
         <v>401</v>
       </c>
     </row>
@@ -9510,9 +9370,7 @@
         <v>348</v>
       </c>
       <c r="K141" s="5"/>
-      <c r="L141" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L141" s="4"/>
       <c r="M141" s="5" t="s">
         <v>50</v>
       </c>
@@ -9560,9 +9418,7 @@
         <v>349</v>
       </c>
       <c r="K142" s="5"/>
-      <c r="L142" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L142" s="4"/>
       <c r="M142" s="5" t="s">
         <v>50</v>
       </c>
@@ -9616,9 +9472,7 @@
       <c r="K143" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="L143" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L143" s="4"/>
       <c r="M143" s="5" t="s">
         <v>50</v>
       </c>
@@ -9672,9 +9526,7 @@
         <v>349</v>
       </c>
       <c r="K144" s="5"/>
-      <c r="L144" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L144" s="4"/>
       <c r="M144" s="5" t="s">
         <v>50</v>
       </c>
@@ -9701,44 +9553,42 @@
       <c r="V144" s="5"/>
     </row>
     <row r="145" spans="1:22">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C145" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
-      <c r="J145" s="5" t="s">
+      <c r="C145" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K145" s="5"/>
-      <c r="L145" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M145" s="5" t="s">
+      <c r="K145" s="2"/>
+      <c r="L145" s="4"/>
+      <c r="M145" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N145" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O145" s="5"/>
-      <c r="P145" s="5"/>
-      <c r="Q145" s="5"/>
-      <c r="R145" s="5"/>
-      <c r="S145" s="5"/>
-      <c r="T145" s="5"/>
-      <c r="U145" s="5" t="s">
+      <c r="N145" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O145" s="2"/>
+      <c r="P145" s="2"/>
+      <c r="Q145" s="2"/>
+      <c r="R145" s="2"/>
+      <c r="S145" s="2"/>
+      <c r="T145" s="2"/>
+      <c r="U145" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V145" s="5"/>
+      <c r="V145" s="2"/>
     </row>
     <row r="146" spans="1:22">
       <c r="A146" s="5" t="s">
@@ -9762,9 +9612,7 @@
         <v>348</v>
       </c>
       <c r="K146" s="5"/>
-      <c r="L146" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L146" s="4"/>
       <c r="M146" s="5" t="s">
         <v>38</v>
       </c>
@@ -9812,9 +9660,7 @@
         <v>349</v>
       </c>
       <c r="K147" s="5"/>
-      <c r="L147" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L147" s="4"/>
       <c r="M147" s="5" t="s">
         <v>38</v>
       </c>
@@ -9841,48 +9687,46 @@
       <c r="V147" s="5"/>
     </row>
     <row r="148" spans="1:22">
-      <c r="A148" s="5" t="s">
+      <c r="A148" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B148" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C148" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D148" s="5" t="s">
+      <c r="C148" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="5"/>
-      <c r="J148" s="5" t="s">
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K148" s="5"/>
-      <c r="L148" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M148" s="5" t="s">
+      <c r="K148" s="2"/>
+      <c r="L148" s="4"/>
+      <c r="M148" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N148" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O148" s="5" t="s">
+      <c r="N148" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O148" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P148" s="5"/>
-      <c r="Q148" s="5"/>
-      <c r="R148" s="5"/>
-      <c r="S148" s="5"/>
-      <c r="T148" s="5"/>
-      <c r="U148" s="5" t="s">
+      <c r="P148" s="2"/>
+      <c r="Q148" s="2"/>
+      <c r="R148" s="2"/>
+      <c r="S148" s="2"/>
+      <c r="T148" s="2"/>
+      <c r="U148" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V148" s="5"/>
+      <c r="V148" s="2"/>
     </row>
     <row r="149" spans="1:22">
       <c r="A149" s="5" t="s">
@@ -9912,9 +9756,7 @@
         <v>349</v>
       </c>
       <c r="K149" s="5"/>
-      <c r="L149" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L149" s="4"/>
       <c r="M149" s="5" t="s">
         <v>39</v>
       </c>
@@ -9966,9 +9808,7 @@
         <v>349</v>
       </c>
       <c r="K150" s="5"/>
-      <c r="L150" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L150" s="4"/>
       <c r="M150" s="5" t="s">
         <v>39</v>
       </c>
@@ -9993,44 +9833,42 @@
       <c r="V150" s="5"/>
     </row>
     <row r="151" spans="1:22">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C151" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="5"/>
-      <c r="J151" s="5" t="s">
+      <c r="C151" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K151" s="5"/>
-      <c r="L151" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M151" s="5" t="s">
+      <c r="K151" s="2"/>
+      <c r="L151" s="4"/>
+      <c r="M151" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N151" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O151" s="5"/>
-      <c r="P151" s="5"/>
-      <c r="Q151" s="5"/>
-      <c r="R151" s="5"/>
-      <c r="S151" s="5"/>
-      <c r="T151" s="5"/>
-      <c r="U151" s="5" t="s">
+      <c r="N151" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O151" s="2"/>
+      <c r="P151" s="2"/>
+      <c r="Q151" s="2"/>
+      <c r="R151" s="2"/>
+      <c r="S151" s="2"/>
+      <c r="T151" s="2"/>
+      <c r="U151" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V151" s="5"/>
+      <c r="V151" s="2"/>
     </row>
     <row r="152" spans="1:22">
       <c r="A152" s="5" t="s">
@@ -10054,9 +9892,7 @@
         <v>348</v>
       </c>
       <c r="K152" s="5"/>
-      <c r="L152" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L152" s="4"/>
       <c r="M152" s="5" t="s">
         <v>40</v>
       </c>
@@ -10104,9 +9940,7 @@
         <v>349</v>
       </c>
       <c r="K153" s="5"/>
-      <c r="L153" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L153" s="4"/>
       <c r="M153" s="5" t="s">
         <v>40</v>
       </c>
@@ -10158,9 +9992,7 @@
         <v>349</v>
       </c>
       <c r="K154" s="5"/>
-      <c r="L154" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L154" s="4"/>
       <c r="M154" s="5" t="s">
         <v>40</v>
       </c>
@@ -10185,44 +10017,42 @@
       <c r="V154" s="5"/>
     </row>
     <row r="155" spans="1:22">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5"/>
-      <c r="J155" s="5" t="s">
+      <c r="C155" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K155" s="5"/>
-      <c r="L155" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M155" s="5" t="s">
+      <c r="K155" s="2"/>
+      <c r="L155" s="4"/>
+      <c r="M155" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N155" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O155" s="5"/>
-      <c r="P155" s="5"/>
-      <c r="Q155" s="5"/>
-      <c r="R155" s="5"/>
-      <c r="S155" s="5"/>
-      <c r="T155" s="5"/>
-      <c r="U155" s="5" t="s">
+      <c r="N155" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O155" s="2"/>
+      <c r="P155" s="2"/>
+      <c r="Q155" s="2"/>
+      <c r="R155" s="2"/>
+      <c r="S155" s="2"/>
+      <c r="T155" s="2"/>
+      <c r="U155" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V155" s="5"/>
+      <c r="V155" s="2"/>
     </row>
     <row r="156" spans="1:22">
       <c r="A156" s="5" t="s">
@@ -10246,9 +10076,7 @@
         <v>348</v>
       </c>
       <c r="K156" s="5"/>
-      <c r="L156" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L156" s="4"/>
       <c r="M156" s="5" t="s">
         <v>51</v>
       </c>
@@ -10296,9 +10124,7 @@
         <v>349</v>
       </c>
       <c r="K157" s="5"/>
-      <c r="L157" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L157" s="4"/>
       <c r="M157" s="5" t="s">
         <v>51</v>
       </c>
@@ -10352,9 +10178,7 @@
         <v>349</v>
       </c>
       <c r="K158" s="5"/>
-      <c r="L158" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L158" s="4"/>
       <c r="M158" s="5" t="s">
         <v>51</v>
       </c>
@@ -10408,9 +10232,7 @@
         <v>349</v>
       </c>
       <c r="K159" s="5"/>
-      <c r="L159" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L159" s="4"/>
       <c r="M159" s="5" t="s">
         <v>51</v>
       </c>
@@ -10502,9 +10324,7 @@
         <v>348</v>
       </c>
       <c r="K161" s="5"/>
-      <c r="L161" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L161" s="4"/>
       <c r="M161" s="5" t="s">
         <v>52</v>
       </c>
@@ -10552,9 +10372,7 @@
         <v>349</v>
       </c>
       <c r="K162" s="5"/>
-      <c r="L162" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L162" s="4"/>
       <c r="M162" s="5" t="s">
         <v>52</v>
       </c>
@@ -10581,48 +10399,46 @@
       <c r="V162" s="5"/>
     </row>
     <row r="163" spans="1:22">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C163" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="D163" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
-      <c r="G163" s="5"/>
-      <c r="H163" s="5"/>
-      <c r="I163" s="5"/>
-      <c r="J163" s="5" t="s">
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K163" s="5"/>
-      <c r="L163" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M163" s="5" t="s">
+      <c r="K163" s="2"/>
+      <c r="L163" s="4"/>
+      <c r="M163" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N163" s="5" t="s">
+      <c r="N163" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O163" s="5" t="s">
+      <c r="O163" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P163" s="5"/>
-      <c r="Q163" s="5"/>
-      <c r="R163" s="5"/>
-      <c r="S163" s="5"/>
-      <c r="T163" s="5"/>
-      <c r="U163" s="5" t="s">
+      <c r="P163" s="2"/>
+      <c r="Q163" s="2"/>
+      <c r="R163" s="2"/>
+      <c r="S163" s="2"/>
+      <c r="T163" s="2"/>
+      <c r="U163" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V163" s="5"/>
+      <c r="V163" s="2"/>
     </row>
     <row r="164" spans="1:22">
       <c r="A164" s="5" t="s">
@@ -10652,9 +10468,7 @@
         <v>349</v>
       </c>
       <c r="K164" s="5"/>
-      <c r="L164" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L164" s="4"/>
       <c r="M164" s="5" t="s">
         <v>53</v>
       </c>
@@ -10708,9 +10522,7 @@
       <c r="K165" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="L165" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L165" s="4"/>
       <c r="M165" s="5" t="s">
         <v>53</v>
       </c>
@@ -10737,48 +10549,46 @@
       </c>
     </row>
     <row r="166" spans="1:22">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C166" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="D166" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="5"/>
-      <c r="J166" s="5" t="s">
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K166" s="5"/>
-      <c r="L166" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M166" s="5" t="s">
+      <c r="K166" s="2"/>
+      <c r="L166" s="4"/>
+      <c r="M166" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N166" s="5" t="s">
+      <c r="N166" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O166" s="5" t="s">
+      <c r="O166" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P166" s="5"/>
-      <c r="Q166" s="5"/>
-      <c r="R166" s="5"/>
-      <c r="S166" s="5"/>
-      <c r="T166" s="5"/>
-      <c r="U166" s="5" t="s">
+      <c r="P166" s="2"/>
+      <c r="Q166" s="2"/>
+      <c r="R166" s="2"/>
+      <c r="S166" s="2"/>
+      <c r="T166" s="2"/>
+      <c r="U166" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V166" s="5"/>
+      <c r="V166" s="2"/>
     </row>
     <row r="167" spans="1:22">
       <c r="A167" s="5" t="s">
@@ -10808,9 +10618,7 @@
         <v>349</v>
       </c>
       <c r="K167" s="5"/>
-      <c r="L167" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L167" s="4"/>
       <c r="M167" s="5" t="s">
         <v>54</v>
       </c>
@@ -10864,9 +10672,7 @@
       <c r="K168" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="L168" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L168" s="4"/>
       <c r="M168" s="5" t="s">
         <v>54</v>
       </c>
@@ -10920,9 +10726,7 @@
         <v>349</v>
       </c>
       <c r="K169" s="5"/>
-      <c r="L169" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L169" s="4"/>
       <c r="M169" s="5" t="s">
         <v>54</v>
       </c>
@@ -11014,9 +10818,7 @@
         <v>348</v>
       </c>
       <c r="K171" s="5"/>
-      <c r="L171" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L171" s="4"/>
       <c r="M171" s="5" t="s">
         <v>55</v>
       </c>
@@ -11064,9 +10866,7 @@
         <v>349</v>
       </c>
       <c r="K172" s="5"/>
-      <c r="L172" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L172" s="4"/>
       <c r="M172" s="5" t="s">
         <v>55</v>
       </c>
@@ -11093,48 +10893,46 @@
       <c r="V172" s="5"/>
     </row>
     <row r="173" spans="1:22">
-      <c r="A173" s="5" t="s">
+      <c r="A173" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B173" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C173" s="5" t="s">
+      <c r="C173" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="D173" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E173" s="5"/>
-      <c r="F173" s="5"/>
-      <c r="G173" s="5"/>
-      <c r="H173" s="5"/>
-      <c r="I173" s="5"/>
-      <c r="J173" s="5" t="s">
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K173" s="5"/>
-      <c r="L173" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M173" s="5" t="s">
+      <c r="K173" s="2"/>
+      <c r="L173" s="4"/>
+      <c r="M173" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N173" s="5" t="s">
+      <c r="N173" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O173" s="5" t="s">
+      <c r="O173" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P173" s="5"/>
-      <c r="Q173" s="5"/>
-      <c r="R173" s="5"/>
-      <c r="S173" s="5"/>
-      <c r="T173" s="5"/>
-      <c r="U173" s="5" t="s">
+      <c r="P173" s="2"/>
+      <c r="Q173" s="2"/>
+      <c r="R173" s="2"/>
+      <c r="S173" s="2"/>
+      <c r="T173" s="2"/>
+      <c r="U173" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V173" s="5"/>
+      <c r="V173" s="2"/>
     </row>
     <row r="174" spans="1:22">
       <c r="A174" s="5" t="s">
@@ -11164,9 +10962,7 @@
         <v>349</v>
       </c>
       <c r="K174" s="5"/>
-      <c r="L174" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L174" s="4"/>
       <c r="M174" s="5" t="s">
         <v>56</v>
       </c>
@@ -11220,9 +11016,7 @@
       <c r="K175" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="L175" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L175" s="4"/>
       <c r="M175" s="5" t="s">
         <v>56</v>
       </c>
@@ -11249,50 +11043,48 @@
       </c>
     </row>
     <row r="176" spans="1:22">
-      <c r="A176" s="5" t="s">
+      <c r="A176" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="B176" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C176" s="5" t="s">
+      <c r="C176" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="D176" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E176" s="5"/>
-      <c r="F176" s="5"/>
-      <c r="G176" s="5"/>
-      <c r="H176" s="5"/>
-      <c r="I176" s="5"/>
-      <c r="J176" s="5" t="s">
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="K176" s="5" t="s">
+      <c r="K176" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="L176" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M176" s="5" t="s">
+      <c r="L176" s="4"/>
+      <c r="M176" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N176" s="5" t="s">
+      <c r="N176" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O176" s="5" t="s">
+      <c r="O176" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P176" s="5"/>
-      <c r="Q176" s="5"/>
-      <c r="R176" s="5"/>
-      <c r="S176" s="5"/>
-      <c r="T176" s="5"/>
-      <c r="U176" s="5" t="s">
+      <c r="P176" s="2"/>
+      <c r="Q176" s="2"/>
+      <c r="R176" s="2"/>
+      <c r="S176" s="2"/>
+      <c r="T176" s="2"/>
+      <c r="U176" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="V176" s="5" t="s">
+      <c r="V176" s="2" t="s">
         <v>407</v>
       </c>
     </row>
@@ -11324,9 +11116,7 @@
         <v>349</v>
       </c>
       <c r="K177" s="5"/>
-      <c r="L177" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L177" s="4"/>
       <c r="M177" s="5" t="s">
         <v>57</v>
       </c>
@@ -11378,9 +11168,7 @@
         <v>349</v>
       </c>
       <c r="K178" s="5"/>
-      <c r="L178" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L178" s="4"/>
       <c r="M178" s="5" t="s">
         <v>57</v>
       </c>
@@ -11405,44 +11193,42 @@
       <c r="V178" s="5"/>
     </row>
     <row r="179" spans="1:22">
-      <c r="A179" s="5" t="s">
+      <c r="A179" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="B179" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C179" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D179" s="5"/>
-      <c r="E179" s="5"/>
-      <c r="F179" s="5"/>
-      <c r="G179" s="5"/>
-      <c r="H179" s="5"/>
-      <c r="I179" s="5"/>
-      <c r="J179" s="5" t="s">
+      <c r="C179" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
+      <c r="J179" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K179" s="5"/>
-      <c r="L179" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M179" s="5" t="s">
+      <c r="K179" s="2"/>
+      <c r="L179" s="4"/>
+      <c r="M179" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N179" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O179" s="5"/>
-      <c r="P179" s="5"/>
-      <c r="Q179" s="5"/>
-      <c r="R179" s="5"/>
-      <c r="S179" s="5"/>
-      <c r="T179" s="5"/>
-      <c r="U179" s="5" t="s">
+      <c r="N179" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O179" s="2"/>
+      <c r="P179" s="2"/>
+      <c r="Q179" s="2"/>
+      <c r="R179" s="2"/>
+      <c r="S179" s="2"/>
+      <c r="T179" s="2"/>
+      <c r="U179" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V179" s="5"/>
+      <c r="V179" s="2"/>
     </row>
     <row r="180" spans="1:22">
       <c r="A180" s="5" t="s">
@@ -11466,9 +11252,7 @@
         <v>348</v>
       </c>
       <c r="K180" s="5"/>
-      <c r="L180" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L180" s="4"/>
       <c r="M180" s="5" t="s">
         <v>58</v>
       </c>
@@ -11516,9 +11300,7 @@
         <v>349</v>
       </c>
       <c r="K181" s="5"/>
-      <c r="L181" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L181" s="4"/>
       <c r="M181" s="5" t="s">
         <v>58</v>
       </c>
@@ -11566,9 +11348,7 @@
         <v>348</v>
       </c>
       <c r="K182" s="5"/>
-      <c r="L182" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L182" s="4"/>
       <c r="M182" s="5" t="s">
         <v>58</v>
       </c>
@@ -11616,9 +11396,7 @@
         <v>349</v>
       </c>
       <c r="K183" s="5"/>
-      <c r="L183" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L183" s="4"/>
       <c r="M183" s="5" t="s">
         <v>58</v>
       </c>
@@ -11672,9 +11450,7 @@
         <v>349</v>
       </c>
       <c r="K184" s="5"/>
-      <c r="L184" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L184" s="4"/>
       <c r="M184" s="5" t="s">
         <v>58</v>
       </c>
@@ -11728,9 +11504,7 @@
         <v>349</v>
       </c>
       <c r="K185" s="5"/>
-      <c r="L185" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L185" s="4"/>
       <c r="M185" s="5" t="s">
         <v>58</v>
       </c>
@@ -11784,9 +11558,7 @@
         <v>349</v>
       </c>
       <c r="K186" s="5"/>
-      <c r="L186" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L186" s="4"/>
       <c r="M186" s="5" t="s">
         <v>58</v>
       </c>
@@ -11840,9 +11612,7 @@
         <v>349</v>
       </c>
       <c r="K187" s="5"/>
-      <c r="L187" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L187" s="4"/>
       <c r="M187" s="5" t="s">
         <v>58</v>
       </c>
@@ -11896,9 +11666,7 @@
         <v>349</v>
       </c>
       <c r="K188" s="5"/>
-      <c r="L188" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L188" s="4"/>
       <c r="M188" s="5" t="s">
         <v>58</v>
       </c>
@@ -11952,9 +11720,7 @@
         <v>349</v>
       </c>
       <c r="K189" s="5"/>
-      <c r="L189" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L189" s="4"/>
       <c r="M189" s="5" t="s">
         <v>58</v>
       </c>
@@ -11981,48 +11747,46 @@
       <c r="V189" s="5"/>
     </row>
     <row r="190" spans="1:22">
-      <c r="A190" s="5" t="s">
+      <c r="A190" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="B190" s="5" t="s">
+      <c r="B190" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C190" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D190" s="5" t="s">
+      <c r="C190" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E190" s="5"/>
-      <c r="F190" s="5"/>
-      <c r="G190" s="5"/>
-      <c r="H190" s="5"/>
-      <c r="I190" s="5"/>
-      <c r="J190" s="5" t="s">
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="2"/>
+      <c r="H190" s="2"/>
+      <c r="I190" s="2"/>
+      <c r="J190" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K190" s="5"/>
-      <c r="L190" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M190" s="5" t="s">
+      <c r="K190" s="2"/>
+      <c r="L190" s="4"/>
+      <c r="M190" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N190" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O190" s="5" t="s">
+      <c r="N190" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O190" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P190" s="5"/>
-      <c r="Q190" s="5"/>
-      <c r="R190" s="5"/>
-      <c r="S190" s="5"/>
-      <c r="T190" s="5"/>
-      <c r="U190" s="5" t="s">
+      <c r="P190" s="2"/>
+      <c r="Q190" s="2"/>
+      <c r="R190" s="2"/>
+      <c r="S190" s="2"/>
+      <c r="T190" s="2"/>
+      <c r="U190" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V190" s="5"/>
+      <c r="V190" s="2"/>
     </row>
     <row r="191" spans="1:22">
       <c r="A191" s="5" t="s">
@@ -12052,9 +11816,7 @@
         <v>349</v>
       </c>
       <c r="K191" s="5"/>
-      <c r="L191" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L191" s="4"/>
       <c r="M191" s="5" t="s">
         <v>59</v>
       </c>
@@ -12106,9 +11868,7 @@
         <v>349</v>
       </c>
       <c r="K192" s="5"/>
-      <c r="L192" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L192" s="4"/>
       <c r="M192" s="5" t="s">
         <v>59</v>
       </c>
@@ -12133,50 +11893,48 @@
       <c r="V192" s="5"/>
     </row>
     <row r="193" spans="1:22">
-      <c r="A193" s="5" t="s">
+      <c r="A193" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="B193" s="5" t="s">
+      <c r="B193" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C193" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D193" s="5" t="s">
+      <c r="C193" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E193" s="5"/>
-      <c r="F193" s="5"/>
-      <c r="G193" s="5"/>
-      <c r="H193" s="5"/>
-      <c r="I193" s="5"/>
-      <c r="J193" s="5" t="s">
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="K193" s="5" t="s">
+      <c r="K193" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="L193" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M193" s="5" t="s">
+      <c r="L193" s="4"/>
+      <c r="M193" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N193" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O193" s="5" t="s">
+      <c r="N193" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O193" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P193" s="5"/>
-      <c r="Q193" s="5"/>
-      <c r="R193" s="5"/>
-      <c r="S193" s="5"/>
-      <c r="T193" s="5"/>
-      <c r="U193" s="5" t="s">
+      <c r="P193" s="2"/>
+      <c r="Q193" s="2"/>
+      <c r="R193" s="2"/>
+      <c r="S193" s="2"/>
+      <c r="T193" s="2"/>
+      <c r="U193" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="V193" s="5" t="s">
+      <c r="V193" s="2" t="s">
         <v>408</v>
       </c>
     </row>
@@ -12208,9 +11966,7 @@
         <v>349</v>
       </c>
       <c r="K194" s="5"/>
-      <c r="L194" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L194" s="4"/>
       <c r="M194" s="5" t="s">
         <v>60</v>
       </c>
@@ -12264,9 +12020,7 @@
         <v>349</v>
       </c>
       <c r="K195" s="5"/>
-      <c r="L195" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L195" s="4"/>
       <c r="M195" s="5" t="s">
         <v>60</v>
       </c>
@@ -12320,9 +12074,7 @@
         <v>349</v>
       </c>
       <c r="K196" s="5"/>
-      <c r="L196" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L196" s="4"/>
       <c r="M196" s="5" t="s">
         <v>60</v>
       </c>
@@ -12349,48 +12101,46 @@
       <c r="V196" s="5"/>
     </row>
     <row r="197" spans="1:22">
-      <c r="A197" s="5" t="s">
+      <c r="A197" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="B197" s="5" t="s">
+      <c r="B197" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C197" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D197" s="5" t="s">
+      <c r="C197" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E197" s="5"/>
-      <c r="F197" s="5"/>
-      <c r="G197" s="5"/>
-      <c r="H197" s="5"/>
-      <c r="I197" s="5"/>
-      <c r="J197" s="5" t="s">
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+      <c r="J197" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K197" s="5"/>
-      <c r="L197" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M197" s="5" t="s">
+      <c r="K197" s="2"/>
+      <c r="L197" s="4"/>
+      <c r="M197" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N197" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O197" s="5" t="s">
+      <c r="N197" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O197" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P197" s="5"/>
-      <c r="Q197" s="5"/>
-      <c r="R197" s="5"/>
-      <c r="S197" s="5"/>
-      <c r="T197" s="5"/>
-      <c r="U197" s="5" t="s">
+      <c r="P197" s="2"/>
+      <c r="Q197" s="2"/>
+      <c r="R197" s="2"/>
+      <c r="S197" s="2"/>
+      <c r="T197" s="2"/>
+      <c r="U197" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V197" s="5"/>
+      <c r="V197" s="2"/>
     </row>
     <row r="198" spans="1:22">
       <c r="A198" s="5" t="s">
@@ -12420,9 +12170,7 @@
         <v>349</v>
       </c>
       <c r="K198" s="5"/>
-      <c r="L198" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L198" s="4"/>
       <c r="M198" s="5" t="s">
         <v>61</v>
       </c>
@@ -12476,9 +12224,7 @@
         <v>349</v>
       </c>
       <c r="K199" s="5"/>
-      <c r="L199" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L199" s="4"/>
       <c r="M199" s="5" t="s">
         <v>61</v>
       </c>
@@ -12505,46 +12251,44 @@
       <c r="V199" s="5"/>
     </row>
     <row r="200" spans="1:22">
-      <c r="A200" s="5" t="s">
+      <c r="A200" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="B200" s="5" t="s">
+      <c r="B200" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C200" s="5" t="s">
+      <c r="C200" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D200" s="5"/>
-      <c r="E200" s="5"/>
-      <c r="F200" s="5"/>
-      <c r="G200" s="5"/>
-      <c r="H200" s="5"/>
-      <c r="I200" s="5"/>
-      <c r="J200" s="5" t="s">
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="K200" s="5" t="s">
+      <c r="K200" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="L200" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M200" s="5" t="s">
+      <c r="L200" s="4"/>
+      <c r="M200" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N200" s="5" t="s">
+      <c r="N200" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O200" s="5"/>
-      <c r="P200" s="5"/>
-      <c r="Q200" s="5"/>
-      <c r="R200" s="5"/>
-      <c r="S200" s="5"/>
-      <c r="T200" s="5"/>
-      <c r="U200" s="5" t="s">
+      <c r="O200" s="2"/>
+      <c r="P200" s="2"/>
+      <c r="Q200" s="2"/>
+      <c r="R200" s="2"/>
+      <c r="S200" s="2"/>
+      <c r="T200" s="2"/>
+      <c r="U200" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="V200" s="5" t="s">
+      <c r="V200" s="2" t="s">
         <v>409</v>
       </c>
     </row>
@@ -12570,9 +12314,7 @@
         <v>348</v>
       </c>
       <c r="K201" s="5"/>
-      <c r="L201" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L201" s="4"/>
       <c r="M201" s="5" t="s">
         <v>62</v>
       </c>
@@ -12620,9 +12362,7 @@
         <v>349</v>
       </c>
       <c r="K202" s="5"/>
-      <c r="L202" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L202" s="4"/>
       <c r="M202" s="5" t="s">
         <v>62</v>
       </c>
@@ -12834,9 +12574,7 @@
         <v>349</v>
       </c>
       <c r="K206" s="5"/>
-      <c r="L206" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L206" s="4"/>
       <c r="M206" s="5" t="s">
         <v>63</v>
       </c>
@@ -12861,48 +12599,46 @@
       <c r="V206" s="5"/>
     </row>
     <row r="207" spans="1:22">
-      <c r="A207" s="5" t="s">
+      <c r="A207" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="B207" s="5" t="s">
+      <c r="B207" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C207" s="5" t="s">
+      <c r="C207" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D207" s="5" t="s">
+      <c r="D207" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E207" s="5"/>
-      <c r="F207" s="5"/>
-      <c r="G207" s="5"/>
-      <c r="H207" s="5"/>
-      <c r="I207" s="5"/>
-      <c r="J207" s="5" t="s">
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+      <c r="I207" s="2"/>
+      <c r="J207" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K207" s="5"/>
-      <c r="L207" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M207" s="5" t="s">
+      <c r="K207" s="2"/>
+      <c r="L207" s="4"/>
+      <c r="M207" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N207" s="5" t="s">
+      <c r="N207" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O207" s="5" t="s">
+      <c r="O207" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P207" s="5"/>
-      <c r="Q207" s="5"/>
-      <c r="R207" s="5"/>
-      <c r="S207" s="5"/>
-      <c r="T207" s="5"/>
-      <c r="U207" s="5" t="s">
+      <c r="P207" s="2"/>
+      <c r="Q207" s="2"/>
+      <c r="R207" s="2"/>
+      <c r="S207" s="2"/>
+      <c r="T207" s="2"/>
+      <c r="U207" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V207" s="5"/>
+      <c r="V207" s="2"/>
     </row>
     <row r="208" spans="1:22">
       <c r="A208" s="5" t="s">
@@ -12932,9 +12668,7 @@
         <v>349</v>
       </c>
       <c r="K208" s="5"/>
-      <c r="L208" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L208" s="4"/>
       <c r="M208" s="5" t="s">
         <v>56</v>
       </c>
@@ -12988,9 +12722,7 @@
       <c r="K209" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="L209" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L209" s="4"/>
       <c r="M209" s="5" t="s">
         <v>56</v>
       </c>
@@ -13017,50 +12749,48 @@
       </c>
     </row>
     <row r="210" spans="1:22">
-      <c r="A210" s="5" t="s">
+      <c r="A210" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="B210" s="5" t="s">
+      <c r="B210" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C210" s="5" t="s">
+      <c r="C210" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D210" s="5" t="s">
+      <c r="D210" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E210" s="5"/>
-      <c r="F210" s="5"/>
-      <c r="G210" s="5"/>
-      <c r="H210" s="5"/>
-      <c r="I210" s="5"/>
-      <c r="J210" s="5" t="s">
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
+      <c r="J210" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="K210" s="5" t="s">
+      <c r="K210" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="L210" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M210" s="5" t="s">
+      <c r="L210" s="4"/>
+      <c r="M210" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="N210" s="5" t="s">
+      <c r="N210" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O210" s="5" t="s">
+      <c r="O210" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P210" s="5"/>
-      <c r="Q210" s="5"/>
-      <c r="R210" s="5"/>
-      <c r="S210" s="5"/>
-      <c r="T210" s="5"/>
-      <c r="U210" s="5" t="s">
+      <c r="P210" s="2"/>
+      <c r="Q210" s="2"/>
+      <c r="R210" s="2"/>
+      <c r="S210" s="2"/>
+      <c r="T210" s="2"/>
+      <c r="U210" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="V210" s="5" t="s">
+      <c r="V210" s="2" t="s">
         <v>410</v>
       </c>
     </row>
@@ -13092,9 +12822,7 @@
         <v>349</v>
       </c>
       <c r="K211" s="5"/>
-      <c r="L211" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L211" s="4"/>
       <c r="M211" s="5" t="s">
         <v>64</v>
       </c>
@@ -13146,9 +12874,7 @@
         <v>349</v>
       </c>
       <c r="K212" s="5"/>
-      <c r="L212" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L212" s="4"/>
       <c r="M212" s="5" t="s">
         <v>64</v>
       </c>
@@ -13173,48 +12899,46 @@
       <c r="V212" s="5"/>
     </row>
     <row r="213" spans="1:22">
-      <c r="A213" s="5" t="s">
+      <c r="A213" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="B213" s="5" t="s">
+      <c r="B213" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C213" s="5" t="s">
+      <c r="C213" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D213" s="5" t="s">
+      <c r="D213" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E213" s="5"/>
-      <c r="F213" s="5"/>
-      <c r="G213" s="5"/>
-      <c r="H213" s="5"/>
-      <c r="I213" s="5"/>
-      <c r="J213" s="5" t="s">
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="2"/>
+      <c r="J213" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K213" s="5"/>
-      <c r="L213" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M213" s="5" t="s">
+      <c r="K213" s="2"/>
+      <c r="L213" s="4"/>
+      <c r="M213" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N213" s="5" t="s">
+      <c r="N213" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O213" s="5" t="s">
+      <c r="O213" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P213" s="5"/>
-      <c r="Q213" s="5"/>
-      <c r="R213" s="5"/>
-      <c r="S213" s="5"/>
-      <c r="T213" s="5"/>
-      <c r="U213" s="5" t="s">
+      <c r="P213" s="2"/>
+      <c r="Q213" s="2"/>
+      <c r="R213" s="2"/>
+      <c r="S213" s="2"/>
+      <c r="T213" s="2"/>
+      <c r="U213" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V213" s="5"/>
+      <c r="V213" s="2"/>
     </row>
     <row r="214" spans="1:22">
       <c r="A214" s="5" t="s">
@@ -13244,9 +12968,7 @@
         <v>349</v>
       </c>
       <c r="K214" s="5"/>
-      <c r="L214" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L214" s="4"/>
       <c r="M214" s="5" t="s">
         <v>65</v>
       </c>
@@ -13300,9 +13022,7 @@
       <c r="K215" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="L215" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L215" s="4"/>
       <c r="M215" s="5" t="s">
         <v>65</v>
       </c>
@@ -13356,9 +13076,7 @@
         <v>349</v>
       </c>
       <c r="K216" s="5"/>
-      <c r="L216" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L216" s="4"/>
       <c r="M216" s="5" t="s">
         <v>65</v>
       </c>
@@ -13385,46 +13103,44 @@
       <c r="V216" s="5"/>
     </row>
     <row r="217" spans="1:22">
-      <c r="A217" s="5" t="s">
+      <c r="A217" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="B217" s="5" t="s">
+      <c r="B217" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C217" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D217" s="5"/>
-      <c r="E217" s="5"/>
-      <c r="F217" s="5"/>
-      <c r="G217" s="5"/>
-      <c r="H217" s="5"/>
-      <c r="I217" s="5"/>
-      <c r="J217" s="5" t="s">
+      <c r="C217" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
+      <c r="H217" s="2"/>
+      <c r="I217" s="2"/>
+      <c r="J217" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="K217" s="5" t="s">
+      <c r="K217" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="L217" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M217" s="5" t="s">
+      <c r="L217" s="4"/>
+      <c r="M217" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N217" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O217" s="5"/>
-      <c r="P217" s="5"/>
-      <c r="Q217" s="5"/>
-      <c r="R217" s="5"/>
-      <c r="S217" s="5"/>
-      <c r="T217" s="5"/>
-      <c r="U217" s="5" t="s">
+      <c r="N217" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O217" s="2"/>
+      <c r="P217" s="2"/>
+      <c r="Q217" s="2"/>
+      <c r="R217" s="2"/>
+      <c r="S217" s="2"/>
+      <c r="T217" s="2"/>
+      <c r="U217" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="V217" s="5" t="s">
+      <c r="V217" s="2" t="s">
         <v>412</v>
       </c>
     </row>
@@ -13450,9 +13166,7 @@
         <v>348</v>
       </c>
       <c r="K218" s="5"/>
-      <c r="L218" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L218" s="4"/>
       <c r="M218" s="5" t="s">
         <v>66</v>
       </c>
@@ -13500,9 +13214,7 @@
         <v>349</v>
       </c>
       <c r="K219" s="5"/>
-      <c r="L219" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L219" s="4"/>
       <c r="M219" s="5" t="s">
         <v>66</v>
       </c>
@@ -13550,9 +13262,7 @@
         <v>348</v>
       </c>
       <c r="K220" s="5"/>
-      <c r="L220" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L220" s="4"/>
       <c r="M220" s="5" t="s">
         <v>66</v>
       </c>
@@ -13600,9 +13310,7 @@
         <v>349</v>
       </c>
       <c r="K221" s="5"/>
-      <c r="L221" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L221" s="4"/>
       <c r="M221" s="5" t="s">
         <v>66</v>
       </c>
@@ -13656,9 +13364,7 @@
         <v>349</v>
       </c>
       <c r="K222" s="5"/>
-      <c r="L222" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L222" s="4"/>
       <c r="M222" s="5" t="s">
         <v>66</v>
       </c>
@@ -13712,9 +13418,7 @@
         <v>349</v>
       </c>
       <c r="K223" s="5"/>
-      <c r="L223" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L223" s="4"/>
       <c r="M223" s="5" t="s">
         <v>66</v>
       </c>
@@ -13768,9 +13472,7 @@
         <v>349</v>
       </c>
       <c r="K224" s="5"/>
-      <c r="L224" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L224" s="4"/>
       <c r="M224" s="5" t="s">
         <v>66</v>
       </c>
@@ -13797,46 +13499,44 @@
       <c r="V224" s="5"/>
     </row>
     <row r="225" spans="1:22">
-      <c r="A225" s="5" t="s">
+      <c r="A225" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="B225" s="5" t="s">
+      <c r="B225" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C225" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D225" s="5"/>
-      <c r="E225" s="5"/>
-      <c r="F225" s="5"/>
-      <c r="G225" s="5"/>
-      <c r="H225" s="5"/>
-      <c r="I225" s="5"/>
-      <c r="J225" s="5" t="s">
+      <c r="C225" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
+      <c r="H225" s="2"/>
+      <c r="I225" s="2"/>
+      <c r="J225" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="K225" s="5" t="s">
+      <c r="K225" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="L225" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M225" s="5" t="s">
+      <c r="L225" s="4"/>
+      <c r="M225" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N225" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O225" s="5"/>
-      <c r="P225" s="5"/>
-      <c r="Q225" s="5"/>
-      <c r="R225" s="5"/>
-      <c r="S225" s="5"/>
-      <c r="T225" s="5"/>
-      <c r="U225" s="5" t="s">
+      <c r="N225" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O225" s="2"/>
+      <c r="P225" s="2"/>
+      <c r="Q225" s="2"/>
+      <c r="R225" s="2"/>
+      <c r="S225" s="2"/>
+      <c r="T225" s="2"/>
+      <c r="U225" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="V225" s="5" t="s">
+      <c r="V225" s="2" t="s">
         <v>413</v>
       </c>
     </row>
@@ -13862,9 +13562,7 @@
         <v>348</v>
       </c>
       <c r="K226" s="5"/>
-      <c r="L226" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L226" s="4"/>
       <c r="M226" s="5" t="s">
         <v>67</v>
       </c>
@@ -13912,9 +13610,7 @@
         <v>349</v>
       </c>
       <c r="K227" s="5"/>
-      <c r="L227" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L227" s="4"/>
       <c r="M227" s="5" t="s">
         <v>67</v>
       </c>
@@ -13968,9 +13664,7 @@
         <v>349</v>
       </c>
       <c r="K228" s="5"/>
-      <c r="L228" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L228" s="4"/>
       <c r="M228" s="5" t="s">
         <v>67</v>
       </c>
@@ -14018,9 +13712,7 @@
         <v>348</v>
       </c>
       <c r="K229" s="5"/>
-      <c r="L229" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L229" s="4"/>
       <c r="M229" s="5" t="s">
         <v>67</v>
       </c>
@@ -14066,9 +13758,7 @@
         <v>349</v>
       </c>
       <c r="K230" s="5"/>
-      <c r="L230" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L230" s="4"/>
       <c r="M230" s="5" t="s">
         <v>67</v>
       </c>
@@ -14118,9 +13808,7 @@
         <v>349</v>
       </c>
       <c r="K231" s="5"/>
-      <c r="L231" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L231" s="4"/>
       <c r="M231" s="5" t="s">
         <v>67</v>
       </c>
@@ -14145,46 +13833,44 @@
       <c r="V231" s="5"/>
     </row>
     <row r="232" spans="1:22">
-      <c r="A232" s="5" t="s">
+      <c r="A232" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="B232" s="5" t="s">
+      <c r="B232" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C232" s="5" t="s">
+      <c r="C232" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D232" s="5"/>
-      <c r="E232" s="5"/>
-      <c r="F232" s="5"/>
-      <c r="G232" s="5"/>
-      <c r="H232" s="5"/>
-      <c r="I232" s="5"/>
-      <c r="J232" s="5" t="s">
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2"/>
+      <c r="I232" s="2"/>
+      <c r="J232" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="K232" s="5" t="s">
+      <c r="K232" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="L232" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M232" s="5" t="s">
+      <c r="L232" s="4"/>
+      <c r="M232" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N232" s="5" t="s">
+      <c r="N232" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O232" s="5"/>
-      <c r="P232" s="5"/>
-      <c r="Q232" s="5"/>
-      <c r="R232" s="5"/>
-      <c r="S232" s="5"/>
-      <c r="T232" s="5"/>
-      <c r="U232" s="5" t="s">
+      <c r="O232" s="2"/>
+      <c r="P232" s="2"/>
+      <c r="Q232" s="2"/>
+      <c r="R232" s="2"/>
+      <c r="S232" s="2"/>
+      <c r="T232" s="2"/>
+      <c r="U232" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="V232" s="5" t="s">
+      <c r="V232" s="2" t="s">
         <v>414</v>
       </c>
     </row>
@@ -14210,9 +13896,7 @@
         <v>348</v>
       </c>
       <c r="K233" s="5"/>
-      <c r="L233" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L233" s="4"/>
       <c r="M233" s="5" t="s">
         <v>68</v>
       </c>
@@ -14260,9 +13944,7 @@
         <v>349</v>
       </c>
       <c r="K234" s="5"/>
-      <c r="L234" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L234" s="4"/>
       <c r="M234" s="5" t="s">
         <v>68</v>
       </c>
@@ -14289,48 +13971,46 @@
       <c r="V234" s="5"/>
     </row>
     <row r="235" spans="1:22">
-      <c r="A235" s="5" t="s">
+      <c r="A235" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="B235" s="5" t="s">
+      <c r="B235" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C235" s="5" t="s">
+      <c r="C235" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D235" s="5" t="s">
+      <c r="D235" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E235" s="5"/>
-      <c r="F235" s="5"/>
-      <c r="G235" s="5"/>
-      <c r="H235" s="5"/>
-      <c r="I235" s="5"/>
-      <c r="J235" s="5" t="s">
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
+      <c r="H235" s="2"/>
+      <c r="I235" s="2"/>
+      <c r="J235" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K235" s="5"/>
-      <c r="L235" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M235" s="5" t="s">
+      <c r="K235" s="2"/>
+      <c r="L235" s="4"/>
+      <c r="M235" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N235" s="5" t="s">
+      <c r="N235" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O235" s="5" t="s">
+      <c r="O235" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P235" s="5"/>
-      <c r="Q235" s="5"/>
-      <c r="R235" s="5"/>
-      <c r="S235" s="5"/>
-      <c r="T235" s="5"/>
-      <c r="U235" s="5" t="s">
+      <c r="P235" s="2"/>
+      <c r="Q235" s="2"/>
+      <c r="R235" s="2"/>
+      <c r="S235" s="2"/>
+      <c r="T235" s="2"/>
+      <c r="U235" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V235" s="5"/>
+      <c r="V235" s="2"/>
     </row>
     <row r="236" spans="1:22">
       <c r="A236" s="5" t="s">
@@ -14360,9 +14040,7 @@
         <v>349</v>
       </c>
       <c r="K236" s="5"/>
-      <c r="L236" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L236" s="4"/>
       <c r="M236" s="5" t="s">
         <v>63</v>
       </c>
@@ -14414,9 +14092,7 @@
         <v>349</v>
       </c>
       <c r="K237" s="5"/>
-      <c r="L237" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L237" s="4"/>
       <c r="M237" s="5" t="s">
         <v>63</v>
       </c>
@@ -14441,44 +14117,42 @@
       <c r="V237" s="5"/>
     </row>
     <row r="238" spans="1:22">
-      <c r="A238" s="5" t="s">
+      <c r="A238" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="B238" s="5" t="s">
+      <c r="B238" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C238" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D238" s="5"/>
-      <c r="E238" s="5"/>
-      <c r="F238" s="5"/>
-      <c r="G238" s="5"/>
-      <c r="H238" s="5"/>
-      <c r="I238" s="5"/>
-      <c r="J238" s="5" t="s">
+      <c r="C238" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
+      <c r="G238" s="2"/>
+      <c r="H238" s="2"/>
+      <c r="I238" s="2"/>
+      <c r="J238" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K238" s="5"/>
-      <c r="L238" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M238" s="5" t="s">
+      <c r="K238" s="2"/>
+      <c r="L238" s="4"/>
+      <c r="M238" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="N238" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O238" s="5"/>
-      <c r="P238" s="5"/>
-      <c r="Q238" s="5"/>
-      <c r="R238" s="5"/>
-      <c r="S238" s="5"/>
-      <c r="T238" s="5"/>
-      <c r="U238" s="5" t="s">
+      <c r="N238" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O238" s="2"/>
+      <c r="P238" s="2"/>
+      <c r="Q238" s="2"/>
+      <c r="R238" s="2"/>
+      <c r="S238" s="2"/>
+      <c r="T238" s="2"/>
+      <c r="U238" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V238" s="5"/>
+      <c r="V238" s="2"/>
     </row>
     <row r="239" spans="1:22">
       <c r="A239" s="5" t="s">
@@ -14502,9 +14176,7 @@
         <v>348</v>
       </c>
       <c r="K239" s="5"/>
-      <c r="L239" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L239" s="4"/>
       <c r="M239" s="5" t="s">
         <v>69</v>
       </c>
@@ -14552,9 +14224,7 @@
         <v>349</v>
       </c>
       <c r="K240" s="5"/>
-      <c r="L240" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L240" s="4"/>
       <c r="M240" s="5" t="s">
         <v>69</v>
       </c>
@@ -14581,50 +14251,48 @@
       <c r="V240" s="5"/>
     </row>
     <row r="241" spans="1:22">
-      <c r="A241" s="5" t="s">
+      <c r="A241" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="B241" s="5" t="s">
+      <c r="B241" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C241" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D241" s="5" t="s">
+      <c r="C241" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D241" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E241" s="5"/>
-      <c r="F241" s="5"/>
-      <c r="G241" s="5"/>
-      <c r="H241" s="5"/>
-      <c r="I241" s="5"/>
-      <c r="J241" s="5" t="s">
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
+      <c r="H241" s="2"/>
+      <c r="I241" s="2"/>
+      <c r="J241" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="K241" s="5" t="s">
+      <c r="K241" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="L241" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M241" s="5" t="s">
+      <c r="L241" s="4"/>
+      <c r="M241" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N241" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O241" s="5" t="s">
+      <c r="N241" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O241" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P241" s="5"/>
-      <c r="Q241" s="5"/>
-      <c r="R241" s="5"/>
-      <c r="S241" s="5"/>
-      <c r="T241" s="5"/>
-      <c r="U241" s="5" t="s">
+      <c r="P241" s="2"/>
+      <c r="Q241" s="2"/>
+      <c r="R241" s="2"/>
+      <c r="S241" s="2"/>
+      <c r="T241" s="2"/>
+      <c r="U241" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="V241" s="5" t="s">
+      <c r="V241" s="2" t="s">
         <v>415</v>
       </c>
     </row>
@@ -14656,9 +14324,7 @@
         <v>349</v>
       </c>
       <c r="K242" s="5"/>
-      <c r="L242" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L242" s="4"/>
       <c r="M242" s="5" t="s">
         <v>59</v>
       </c>
@@ -14710,9 +14376,7 @@
         <v>349</v>
       </c>
       <c r="K243" s="5"/>
-      <c r="L243" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L243" s="4"/>
       <c r="M243" s="5" t="s">
         <v>59</v>
       </c>
@@ -14737,48 +14401,46 @@
       <c r="V243" s="5"/>
     </row>
     <row r="244" spans="1:22">
-      <c r="A244" s="5" t="s">
+      <c r="A244" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="B244" s="5" t="s">
+      <c r="B244" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C244" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D244" s="5" t="s">
+      <c r="C244" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D244" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E244" s="5"/>
-      <c r="F244" s="5"/>
-      <c r="G244" s="5"/>
-      <c r="H244" s="5"/>
-      <c r="I244" s="5"/>
-      <c r="J244" s="5" t="s">
+      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
+      <c r="G244" s="2"/>
+      <c r="H244" s="2"/>
+      <c r="I244" s="2"/>
+      <c r="J244" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K244" s="5"/>
-      <c r="L244" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M244" s="5" t="s">
+      <c r="K244" s="2"/>
+      <c r="L244" s="4"/>
+      <c r="M244" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N244" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O244" s="5" t="s">
+      <c r="N244" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O244" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P244" s="5"/>
-      <c r="Q244" s="5"/>
-      <c r="R244" s="5"/>
-      <c r="S244" s="5"/>
-      <c r="T244" s="5"/>
-      <c r="U244" s="5" t="s">
+      <c r="P244" s="2"/>
+      <c r="Q244" s="2"/>
+      <c r="R244" s="2"/>
+      <c r="S244" s="2"/>
+      <c r="T244" s="2"/>
+      <c r="U244" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V244" s="5"/>
+      <c r="V244" s="2"/>
     </row>
     <row r="245" spans="1:22">
       <c r="A245" s="5" t="s">
@@ -14808,9 +14470,7 @@
         <v>349</v>
       </c>
       <c r="K245" s="5"/>
-      <c r="L245" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L245" s="4"/>
       <c r="M245" s="5" t="s">
         <v>70</v>
       </c>
@@ -14864,9 +14524,7 @@
         <v>349</v>
       </c>
       <c r="K246" s="5"/>
-      <c r="L246" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L246" s="4"/>
       <c r="M246" s="5" t="s">
         <v>70</v>
       </c>
@@ -14920,9 +14578,7 @@
         <v>349</v>
       </c>
       <c r="K247" s="5"/>
-      <c r="L247" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L247" s="4"/>
       <c r="M247" s="5" t="s">
         <v>70</v>
       </c>
@@ -14976,9 +14632,7 @@
         <v>349</v>
       </c>
       <c r="K248" s="5"/>
-      <c r="L248" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L248" s="4"/>
       <c r="M248" s="5" t="s">
         <v>70</v>
       </c>
@@ -15032,9 +14686,7 @@
       <c r="K249" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="L249" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L249" s="4"/>
       <c r="M249" s="5" t="s">
         <v>70</v>
       </c>
@@ -15061,46 +14713,44 @@
       </c>
     </row>
     <row r="250" spans="1:22">
-      <c r="A250" s="5" t="s">
+      <c r="A250" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B250" s="5" t="s">
+      <c r="B250" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C250" s="5" t="s">
+      <c r="C250" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D250" s="5"/>
-      <c r="E250" s="5"/>
-      <c r="F250" s="5"/>
-      <c r="G250" s="5"/>
-      <c r="H250" s="5"/>
-      <c r="I250" s="5"/>
-      <c r="J250" s="5" t="s">
+      <c r="D250" s="2"/>
+      <c r="E250" s="2"/>
+      <c r="F250" s="2"/>
+      <c r="G250" s="2"/>
+      <c r="H250" s="2"/>
+      <c r="I250" s="2"/>
+      <c r="J250" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="K250" s="5" t="s">
+      <c r="K250" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="L250" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M250" s="5" t="s">
+      <c r="L250" s="4"/>
+      <c r="M250" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N250" s="5" t="s">
+      <c r="N250" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O250" s="5"/>
-      <c r="P250" s="5"/>
-      <c r="Q250" s="5"/>
-      <c r="R250" s="5"/>
-      <c r="S250" s="5"/>
-      <c r="T250" s="5"/>
-      <c r="U250" s="5" t="s">
+      <c r="O250" s="2"/>
+      <c r="P250" s="2"/>
+      <c r="Q250" s="2"/>
+      <c r="R250" s="2"/>
+      <c r="S250" s="2"/>
+      <c r="T250" s="2"/>
+      <c r="U250" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="V250" s="5" t="s">
+      <c r="V250" s="2" t="s">
         <v>414</v>
       </c>
     </row>
@@ -15126,9 +14776,7 @@
         <v>348</v>
       </c>
       <c r="K251" s="5"/>
-      <c r="L251" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L251" s="4"/>
       <c r="M251" s="5" t="s">
         <v>71</v>
       </c>
@@ -15176,9 +14824,7 @@
         <v>349</v>
       </c>
       <c r="K252" s="5"/>
-      <c r="L252" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L252" s="4"/>
       <c r="M252" s="5" t="s">
         <v>71</v>
       </c>
@@ -15224,9 +14870,7 @@
         <v>348</v>
       </c>
       <c r="K253" s="5"/>
-      <c r="L253" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L253" s="4"/>
       <c r="M253" s="5" t="s">
         <v>71</v>
       </c>
@@ -15266,9 +14910,7 @@
         <v>348</v>
       </c>
       <c r="K254" s="5"/>
-      <c r="L254" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L254" s="4"/>
       <c r="M254" s="5" t="s">
         <v>71</v>
       </c>
@@ -15316,9 +14958,7 @@
         <v>349</v>
       </c>
       <c r="K255" s="5"/>
-      <c r="L255" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L255" s="4"/>
       <c r="M255" s="5" t="s">
         <v>71</v>
       </c>
@@ -15345,48 +14985,46 @@
       <c r="V255" s="5"/>
     </row>
     <row r="256" spans="1:22">
-      <c r="A256" s="5" t="s">
+      <c r="A256" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="B256" s="5" t="s">
+      <c r="B256" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C256" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D256" s="5" t="s">
+      <c r="C256" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D256" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E256" s="5"/>
-      <c r="F256" s="5"/>
-      <c r="G256" s="5"/>
-      <c r="H256" s="5"/>
-      <c r="I256" s="5"/>
-      <c r="J256" s="5" t="s">
+      <c r="E256" s="2"/>
+      <c r="F256" s="2"/>
+      <c r="G256" s="2"/>
+      <c r="H256" s="2"/>
+      <c r="I256" s="2"/>
+      <c r="J256" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K256" s="5"/>
-      <c r="L256" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M256" s="5" t="s">
+      <c r="K256" s="2"/>
+      <c r="L256" s="4"/>
+      <c r="M256" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N256" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O256" s="5" t="s">
+      <c r="N256" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O256" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P256" s="5"/>
-      <c r="Q256" s="5"/>
-      <c r="R256" s="5"/>
-      <c r="S256" s="5"/>
-      <c r="T256" s="5"/>
-      <c r="U256" s="5" t="s">
+      <c r="P256" s="2"/>
+      <c r="Q256" s="2"/>
+      <c r="R256" s="2"/>
+      <c r="S256" s="2"/>
+      <c r="T256" s="2"/>
+      <c r="U256" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V256" s="5"/>
+      <c r="V256" s="2"/>
     </row>
     <row r="257" spans="1:22">
       <c r="A257" s="5" t="s">
@@ -15416,9 +15054,7 @@
         <v>349</v>
       </c>
       <c r="K257" s="5"/>
-      <c r="L257" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L257" s="4"/>
       <c r="M257" s="5" t="s">
         <v>59</v>
       </c>
@@ -15472,9 +15108,7 @@
       <c r="K258" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="L258" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L258" s="4"/>
       <c r="M258" s="5" t="s">
         <v>59</v>
       </c>
@@ -15501,46 +15135,44 @@
       </c>
     </row>
     <row r="259" spans="1:22">
-      <c r="A259" s="5" t="s">
+      <c r="A259" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="B259" s="5" t="s">
+      <c r="B259" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C259" s="5" t="s">
+      <c r="C259" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D259" s="5"/>
-      <c r="E259" s="5"/>
-      <c r="F259" s="5"/>
-      <c r="G259" s="5"/>
-      <c r="H259" s="5"/>
-      <c r="I259" s="5"/>
-      <c r="J259" s="5" t="s">
+      <c r="D259" s="2"/>
+      <c r="E259" s="2"/>
+      <c r="F259" s="2"/>
+      <c r="G259" s="2"/>
+      <c r="H259" s="2"/>
+      <c r="I259" s="2"/>
+      <c r="J259" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="K259" s="5" t="s">
+      <c r="K259" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="L259" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M259" s="5" t="s">
+      <c r="L259" s="4"/>
+      <c r="M259" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N259" s="5" t="s">
+      <c r="N259" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O259" s="5"/>
-      <c r="P259" s="5"/>
-      <c r="Q259" s="5"/>
-      <c r="R259" s="5"/>
-      <c r="S259" s="5"/>
-      <c r="T259" s="5"/>
-      <c r="U259" s="5" t="s">
+      <c r="O259" s="2"/>
+      <c r="P259" s="2"/>
+      <c r="Q259" s="2"/>
+      <c r="R259" s="2"/>
+      <c r="S259" s="2"/>
+      <c r="T259" s="2"/>
+      <c r="U259" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="V259" s="5" t="s">
+      <c r="V259" s="2" t="s">
         <v>418</v>
       </c>
     </row>
@@ -15566,9 +15198,7 @@
         <v>348</v>
       </c>
       <c r="K260" s="5"/>
-      <c r="L260" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L260" s="4"/>
       <c r="M260" s="5" t="s">
         <v>72</v>
       </c>
@@ -15616,9 +15246,7 @@
         <v>349</v>
       </c>
       <c r="K261" s="5"/>
-      <c r="L261" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L261" s="4"/>
       <c r="M261" s="5" t="s">
         <v>72</v>
       </c>
@@ -15645,48 +15273,46 @@
       <c r="V261" s="5"/>
     </row>
     <row r="262" spans="1:22">
-      <c r="A262" s="5" t="s">
+      <c r="A262" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B262" s="5" t="s">
+      <c r="B262" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C262" s="5" t="s">
+      <c r="C262" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D262" s="5" t="s">
+      <c r="D262" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E262" s="5"/>
-      <c r="F262" s="5"/>
-      <c r="G262" s="5"/>
-      <c r="H262" s="5"/>
-      <c r="I262" s="5"/>
-      <c r="J262" s="5" t="s">
+      <c r="E262" s="2"/>
+      <c r="F262" s="2"/>
+      <c r="G262" s="2"/>
+      <c r="H262" s="2"/>
+      <c r="I262" s="2"/>
+      <c r="J262" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K262" s="5"/>
-      <c r="L262" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M262" s="5" t="s">
+      <c r="K262" s="2"/>
+      <c r="L262" s="4"/>
+      <c r="M262" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N262" s="5" t="s">
+      <c r="N262" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O262" s="5" t="s">
+      <c r="O262" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P262" s="5"/>
-      <c r="Q262" s="5"/>
-      <c r="R262" s="5"/>
-      <c r="S262" s="5"/>
-      <c r="T262" s="5"/>
-      <c r="U262" s="5" t="s">
+      <c r="P262" s="2"/>
+      <c r="Q262" s="2"/>
+      <c r="R262" s="2"/>
+      <c r="S262" s="2"/>
+      <c r="T262" s="2"/>
+      <c r="U262" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V262" s="5"/>
+      <c r="V262" s="2"/>
     </row>
     <row r="263" spans="1:22">
       <c r="A263" s="5" t="s">
@@ -15716,9 +15342,7 @@
         <v>349</v>
       </c>
       <c r="K263" s="5"/>
-      <c r="L263" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L263" s="4"/>
       <c r="M263" s="5" t="s">
         <v>57</v>
       </c>
@@ -15770,9 +15394,7 @@
         <v>349</v>
       </c>
       <c r="K264" s="5"/>
-      <c r="L264" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L264" s="4"/>
       <c r="M264" s="5" t="s">
         <v>57</v>
       </c>
@@ -15797,48 +15419,46 @@
       <c r="V264" s="5"/>
     </row>
     <row r="265" spans="1:22">
-      <c r="A265" s="5" t="s">
+      <c r="A265" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="B265" s="5" t="s">
+      <c r="B265" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C265" s="5" t="s">
+      <c r="C265" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D265" s="5" t="s">
+      <c r="D265" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E265" s="5"/>
-      <c r="F265" s="5"/>
-      <c r="G265" s="5"/>
-      <c r="H265" s="5"/>
-      <c r="I265" s="5"/>
-      <c r="J265" s="5" t="s">
+      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
+      <c r="G265" s="2"/>
+      <c r="H265" s="2"/>
+      <c r="I265" s="2"/>
+      <c r="J265" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K265" s="5"/>
-      <c r="L265" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M265" s="5" t="s">
+      <c r="K265" s="2"/>
+      <c r="L265" s="4"/>
+      <c r="M265" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N265" s="5" t="s">
+      <c r="N265" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O265" s="5" t="s">
+      <c r="O265" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P265" s="5"/>
-      <c r="Q265" s="5"/>
-      <c r="R265" s="5"/>
-      <c r="S265" s="5"/>
-      <c r="T265" s="5"/>
-      <c r="U265" s="5" t="s">
+      <c r="P265" s="2"/>
+      <c r="Q265" s="2"/>
+      <c r="R265" s="2"/>
+      <c r="S265" s="2"/>
+      <c r="T265" s="2"/>
+      <c r="U265" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V265" s="5"/>
+      <c r="V265" s="2"/>
     </row>
     <row r="266" spans="1:22">
       <c r="A266" s="5" t="s">
@@ -15868,9 +15488,7 @@
         <v>349</v>
       </c>
       <c r="K266" s="5"/>
-      <c r="L266" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L266" s="4"/>
       <c r="M266" s="5" t="s">
         <v>37</v>
       </c>
@@ -15924,9 +15542,7 @@
       <c r="K267" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="L267" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L267" s="4"/>
       <c r="M267" s="5" t="s">
         <v>37</v>
       </c>
@@ -15953,44 +15569,42 @@
       </c>
     </row>
     <row r="268" spans="1:22">
-      <c r="A268" s="5" t="s">
+      <c r="A268" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="B268" s="5" t="s">
+      <c r="B268" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C268" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D268" s="5"/>
-      <c r="E268" s="5"/>
-      <c r="F268" s="5"/>
-      <c r="G268" s="5"/>
-      <c r="H268" s="5"/>
-      <c r="I268" s="5"/>
-      <c r="J268" s="5" t="s">
+      <c r="C268" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D268" s="2"/>
+      <c r="E268" s="2"/>
+      <c r="F268" s="2"/>
+      <c r="G268" s="2"/>
+      <c r="H268" s="2"/>
+      <c r="I268" s="2"/>
+      <c r="J268" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K268" s="5"/>
-      <c r="L268" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M268" s="5" t="s">
+      <c r="K268" s="2"/>
+      <c r="L268" s="4"/>
+      <c r="M268" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="N268" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O268" s="5"/>
-      <c r="P268" s="5"/>
-      <c r="Q268" s="5"/>
-      <c r="R268" s="5"/>
-      <c r="S268" s="5"/>
-      <c r="T268" s="5"/>
-      <c r="U268" s="5" t="s">
+      <c r="N268" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O268" s="2"/>
+      <c r="P268" s="2"/>
+      <c r="Q268" s="2"/>
+      <c r="R268" s="2"/>
+      <c r="S268" s="2"/>
+      <c r="T268" s="2"/>
+      <c r="U268" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V268" s="5"/>
+      <c r="V268" s="2"/>
     </row>
     <row r="269" spans="1:22">
       <c r="A269" s="5" t="s">
@@ -16014,9 +15628,7 @@
         <v>348</v>
       </c>
       <c r="K269" s="5"/>
-      <c r="L269" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L269" s="4"/>
       <c r="M269" s="5" t="s">
         <v>73</v>
       </c>
@@ -16064,9 +15676,7 @@
         <v>349</v>
       </c>
       <c r="K270" s="5"/>
-      <c r="L270" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L270" s="4"/>
       <c r="M270" s="5" t="s">
         <v>73</v>
       </c>
@@ -16093,48 +15703,46 @@
       <c r="V270" s="5"/>
     </row>
     <row r="271" spans="1:22">
-      <c r="A271" s="5" t="s">
+      <c r="A271" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="B271" s="5" t="s">
+      <c r="B271" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C271" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D271" s="5" t="s">
+      <c r="C271" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D271" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E271" s="5"/>
-      <c r="F271" s="5"/>
-      <c r="G271" s="5"/>
-      <c r="H271" s="5"/>
-      <c r="I271" s="5"/>
-      <c r="J271" s="5" t="s">
+      <c r="E271" s="2"/>
+      <c r="F271" s="2"/>
+      <c r="G271" s="2"/>
+      <c r="H271" s="2"/>
+      <c r="I271" s="2"/>
+      <c r="J271" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K271" s="5"/>
-      <c r="L271" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M271" s="5" t="s">
+      <c r="K271" s="2"/>
+      <c r="L271" s="4"/>
+      <c r="M271" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N271" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O271" s="5" t="s">
+      <c r="N271" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O271" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P271" s="5"/>
-      <c r="Q271" s="5"/>
-      <c r="R271" s="5"/>
-      <c r="S271" s="5"/>
-      <c r="T271" s="5"/>
-      <c r="U271" s="5" t="s">
+      <c r="P271" s="2"/>
+      <c r="Q271" s="2"/>
+      <c r="R271" s="2"/>
+      <c r="S271" s="2"/>
+      <c r="T271" s="2"/>
+      <c r="U271" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V271" s="5"/>
+      <c r="V271" s="2"/>
     </row>
     <row r="272" spans="1:22">
       <c r="A272" s="5" t="s">
@@ -16164,9 +15772,7 @@
         <v>349</v>
       </c>
       <c r="K272" s="5"/>
-      <c r="L272" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L272" s="4"/>
       <c r="M272" s="5" t="s">
         <v>59</v>
       </c>
@@ -16220,9 +15826,7 @@
       <c r="K273" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="L273" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L273" s="4"/>
       <c r="M273" s="5" t="s">
         <v>59</v>
       </c>
@@ -16249,46 +15853,44 @@
       </c>
     </row>
     <row r="274" spans="1:22">
-      <c r="A274" s="5" t="s">
+      <c r="A274" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="B274" s="5" t="s">
+      <c r="B274" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C274" s="5" t="s">
+      <c r="C274" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D274" s="5"/>
-      <c r="E274" s="5"/>
-      <c r="F274" s="5"/>
-      <c r="G274" s="5"/>
-      <c r="H274" s="5"/>
-      <c r="I274" s="5"/>
-      <c r="J274" s="5" t="s">
+      <c r="D274" s="2"/>
+      <c r="E274" s="2"/>
+      <c r="F274" s="2"/>
+      <c r="G274" s="2"/>
+      <c r="H274" s="2"/>
+      <c r="I274" s="2"/>
+      <c r="J274" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="K274" s="5" t="s">
+      <c r="K274" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="L274" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M274" s="5" t="s">
+      <c r="L274" s="4"/>
+      <c r="M274" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N274" s="5" t="s">
+      <c r="N274" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="O274" s="5"/>
-      <c r="P274" s="5"/>
-      <c r="Q274" s="5"/>
-      <c r="R274" s="5"/>
-      <c r="S274" s="5"/>
-      <c r="T274" s="5"/>
-      <c r="U274" s="5" t="s">
+      <c r="O274" s="2"/>
+      <c r="P274" s="2"/>
+      <c r="Q274" s="2"/>
+      <c r="R274" s="2"/>
+      <c r="S274" s="2"/>
+      <c r="T274" s="2"/>
+      <c r="U274" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="V274" s="5" t="s">
+      <c r="V274" s="2" t="s">
         <v>419</v>
       </c>
     </row>
@@ -16314,9 +15916,7 @@
         <v>348</v>
       </c>
       <c r="K275" s="5"/>
-      <c r="L275" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L275" s="4"/>
       <c r="M275" s="5" t="s">
         <v>74</v>
       </c>
@@ -16364,9 +15964,7 @@
         <v>349</v>
       </c>
       <c r="K276" s="5"/>
-      <c r="L276" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L276" s="4"/>
       <c r="M276" s="5" t="s">
         <v>74</v>
       </c>
@@ -16418,9 +16016,7 @@
         <v>349</v>
       </c>
       <c r="K277" s="5"/>
-      <c r="L277" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L277" s="4"/>
       <c r="M277" s="5" t="s">
         <v>74</v>
       </c>
@@ -16472,9 +16068,7 @@
         <v>349</v>
       </c>
       <c r="K278" s="5"/>
-      <c r="L278" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L278" s="4"/>
       <c r="M278" s="5" t="s">
         <v>74</v>
       </c>
@@ -16528,9 +16122,7 @@
         <v>349</v>
       </c>
       <c r="K279" s="5"/>
-      <c r="L279" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L279" s="4"/>
       <c r="M279" s="5" t="s">
         <v>74</v>
       </c>
@@ -16557,48 +16149,46 @@
       <c r="V279" s="5"/>
     </row>
     <row r="280" spans="1:22">
-      <c r="A280" s="5" t="s">
+      <c r="A280" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="B280" s="5" t="s">
+      <c r="B280" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C280" s="5" t="s">
+      <c r="C280" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D280" s="5" t="s">
+      <c r="D280" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E280" s="5"/>
-      <c r="F280" s="5"/>
-      <c r="G280" s="5"/>
-      <c r="H280" s="5"/>
-      <c r="I280" s="5"/>
-      <c r="J280" s="5" t="s">
+      <c r="E280" s="2"/>
+      <c r="F280" s="2"/>
+      <c r="G280" s="2"/>
+      <c r="H280" s="2"/>
+      <c r="I280" s="2"/>
+      <c r="J280" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K280" s="5"/>
-      <c r="L280" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M280" s="5" t="s">
+      <c r="K280" s="2"/>
+      <c r="L280" s="4"/>
+      <c r="M280" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="N280" s="5" t="s">
+      <c r="N280" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="O280" s="5" t="s">
+      <c r="O280" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P280" s="5"/>
-      <c r="Q280" s="5"/>
-      <c r="R280" s="5"/>
-      <c r="S280" s="5"/>
-      <c r="T280" s="5"/>
-      <c r="U280" s="5" t="s">
+      <c r="P280" s="2"/>
+      <c r="Q280" s="2"/>
+      <c r="R280" s="2"/>
+      <c r="S280" s="2"/>
+      <c r="T280" s="2"/>
+      <c r="U280" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V280" s="5"/>
+      <c r="V280" s="2"/>
     </row>
     <row r="281" spans="1:22">
       <c r="A281" s="5" t="s">
@@ -16628,9 +16218,7 @@
         <v>349</v>
       </c>
       <c r="K281" s="5"/>
-      <c r="L281" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L281" s="4"/>
       <c r="M281" s="5" t="s">
         <v>75</v>
       </c>
@@ -16684,9 +16272,7 @@
         <v>349</v>
       </c>
       <c r="K282" s="5"/>
-      <c r="L282" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L282" s="4"/>
       <c r="M282" s="5" t="s">
         <v>75</v>
       </c>
@@ -16740,9 +16326,7 @@
       <c r="K283" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="L283" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L283" s="4"/>
       <c r="M283" s="5" t="s">
         <v>75</v>
       </c>
@@ -16769,46 +16353,44 @@
       </c>
     </row>
     <row r="284" spans="1:22">
-      <c r="A284" s="5" t="s">
+      <c r="A284" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="B284" s="5" t="s">
+      <c r="B284" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C284" s="5" t="s">
+      <c r="C284" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D284" s="5"/>
-      <c r="E284" s="5"/>
-      <c r="F284" s="5"/>
-      <c r="G284" s="5"/>
-      <c r="H284" s="5"/>
-      <c r="I284" s="5"/>
-      <c r="J284" s="5" t="s">
+      <c r="D284" s="2"/>
+      <c r="E284" s="2"/>
+      <c r="F284" s="2"/>
+      <c r="G284" s="2"/>
+      <c r="H284" s="2"/>
+      <c r="I284" s="2"/>
+      <c r="J284" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K284" s="5" t="s">
+      <c r="K284" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="L284" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M284" s="5" t="s">
+      <c r="L284" s="4"/>
+      <c r="M284" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="N284" s="5" t="s">
+      <c r="N284" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="O284" s="5"/>
-      <c r="P284" s="5"/>
-      <c r="Q284" s="5"/>
-      <c r="R284" s="5"/>
-      <c r="S284" s="5"/>
-      <c r="T284" s="5"/>
-      <c r="U284" s="5" t="s">
+      <c r="O284" s="2"/>
+      <c r="P284" s="2"/>
+      <c r="Q284" s="2"/>
+      <c r="R284" s="2"/>
+      <c r="S284" s="2"/>
+      <c r="T284" s="2"/>
+      <c r="U284" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="V284" s="5" t="s">
+      <c r="V284" s="2" t="s">
         <v>420</v>
       </c>
     </row>
@@ -16834,9 +16416,7 @@
         <v>348</v>
       </c>
       <c r="K285" s="5"/>
-      <c r="L285" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L285" s="4"/>
       <c r="M285" s="5" t="s">
         <v>76</v>
       </c>
@@ -16884,9 +16464,7 @@
         <v>349</v>
       </c>
       <c r="K286" s="5"/>
-      <c r="L286" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L286" s="4"/>
       <c r="M286" s="5" t="s">
         <v>76</v>
       </c>
@@ -16938,9 +16516,7 @@
         <v>386</v>
       </c>
       <c r="K287" s="5"/>
-      <c r="L287" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L287" s="4"/>
       <c r="M287" s="5" t="s">
         <v>76</v>
       </c>
@@ -16992,9 +16568,7 @@
       <c r="K288" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="L288" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L288" s="4"/>
       <c r="M288" s="5" t="s">
         <v>76</v>
       </c>
@@ -17046,9 +16620,7 @@
         <v>349</v>
       </c>
       <c r="K289" s="5"/>
-      <c r="L289" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L289" s="4"/>
       <c r="M289" s="5" t="s">
         <v>76</v>
       </c>
@@ -17098,9 +16670,7 @@
         <v>349</v>
       </c>
       <c r="K290" s="5"/>
-      <c r="L290" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L290" s="4"/>
       <c r="M290" s="5" t="s">
         <v>76</v>
       </c>
@@ -17150,9 +16720,7 @@
         <v>349</v>
       </c>
       <c r="K291" s="5"/>
-      <c r="L291" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L291" s="4"/>
       <c r="M291" s="5" t="s">
         <v>76</v>
       </c>
@@ -17177,44 +16745,42 @@
       <c r="V291" s="5"/>
     </row>
     <row r="292" spans="1:22">
-      <c r="A292" s="5" t="s">
+      <c r="A292" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B292" s="5" t="s">
+      <c r="B292" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C292" s="5"/>
-      <c r="D292" s="5" t="s">
+      <c r="C292" s="2"/>
+      <c r="D292" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E292" s="5"/>
-      <c r="F292" s="5"/>
-      <c r="G292" s="5"/>
-      <c r="H292" s="5"/>
-      <c r="I292" s="5"/>
-      <c r="J292" s="5" t="s">
+      <c r="E292" s="2"/>
+      <c r="F292" s="2"/>
+      <c r="G292" s="2"/>
+      <c r="H292" s="2"/>
+      <c r="I292" s="2"/>
+      <c r="J292" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K292" s="5"/>
-      <c r="L292" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M292" s="5" t="s">
+      <c r="K292" s="2"/>
+      <c r="L292" s="4"/>
+      <c r="M292" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N292" s="5"/>
-      <c r="O292" s="5" t="s">
+      <c r="N292" s="2"/>
+      <c r="O292" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="P292" s="5"/>
-      <c r="Q292" s="5"/>
-      <c r="R292" s="5"/>
-      <c r="S292" s="5"/>
-      <c r="T292" s="5"/>
-      <c r="U292" s="5" t="s">
+      <c r="P292" s="2"/>
+      <c r="Q292" s="2"/>
+      <c r="R292" s="2"/>
+      <c r="S292" s="2"/>
+      <c r="T292" s="2"/>
+      <c r="U292" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V292" s="5"/>
+      <c r="V292" s="2"/>
     </row>
     <row r="293" spans="1:22">
       <c r="A293" s="5" t="s">
@@ -17240,9 +16806,7 @@
         <v>349</v>
       </c>
       <c r="K293" s="5"/>
-      <c r="L293" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L293" s="4"/>
       <c r="M293" s="5" t="s">
         <v>77</v>
       </c>
@@ -17288,9 +16852,7 @@
         <v>349</v>
       </c>
       <c r="K294" s="5"/>
-      <c r="L294" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="L294" s="4"/>
       <c r="M294" s="5" t="s">
         <v>77</v>
       </c>

--- a/data/output/FV2310_FV2304/UTILMD/55076.xlsx
+++ b/data/output/FV2310_FV2304/UTILMD/55076.xlsx
@@ -2296,7 +2296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2319,6 +2319,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2327,6 +2330,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2767,7 +2773,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3103,7 +3109,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3237,7 +3243,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3425,7 +3431,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3663,7 +3669,7 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -3849,7 +3855,7 @@
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -4209,7 +4215,7 @@
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -4505,7 +4511,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -4691,7 +4697,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -4893,7 +4899,7 @@
         <v>390</v>
       </c>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -5101,7 +5107,7 @@
         <v>391</v>
       </c>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -5287,22 +5293,22 @@
       <c r="B54" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8" t="s">
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="K54" s="8" t="s">
+      <c r="K54" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="L54" s="9" t="s">
+      <c r="L54" s="10" t="s">
         <v>423</v>
       </c>
       <c r="M54" s="5"/>
@@ -5320,25 +5326,25 @@
       <c r="A55" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8" t="s">
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="K55" s="8"/>
-      <c r="L55" s="9" t="s">
+      <c r="K55" s="9"/>
+      <c r="L55" s="10" t="s">
         <v>423</v>
       </c>
       <c r="M55" s="5"/>
@@ -5356,31 +5362,31 @@
       <c r="A56" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8" t="s">
+      <c r="F56" s="9"/>
+      <c r="G56" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8" t="s">
+      <c r="H56" s="9"/>
+      <c r="I56" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J56" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="K56" s="8"/>
-      <c r="L56" s="9" t="s">
+      <c r="J56" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="K56" s="9"/>
+      <c r="L56" s="10" t="s">
         <v>423</v>
       </c>
       <c r="M56" s="5"/>
@@ -5398,31 +5404,31 @@
       <c r="A57" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8" t="s">
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="J57" s="8" t="s">
+      <c r="J57" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="K57" s="8" t="s">
+      <c r="K57" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="L57" s="9" t="s">
+      <c r="L57" s="10" t="s">
         <v>423</v>
       </c>
       <c r="M57" s="5"/>
@@ -5450,25 +5456,25 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="10" t="s">
+      <c r="L58" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="N58" s="11" t="s">
+      <c r="N58" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="11" t="s">
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="V58" s="11" t="s">
+      <c r="V58" s="13" t="s">
         <v>390</v>
       </c>
     </row>
@@ -5486,27 +5492,27 @@
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="10" t="s">
+      <c r="L59" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="M59" s="11" t="s">
+      <c r="M59" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="N59" s="11" t="s">
+      <c r="N59" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="O59" s="11" t="s">
+      <c r="O59" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="11" t="s">
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="V59" s="11"/>
+      <c r="V59" s="13"/>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="5" t="s">
@@ -5522,33 +5528,33 @@
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="10" t="s">
+      <c r="L60" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="M60" s="11" t="s">
+      <c r="M60" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="N60" s="11" t="s">
+      <c r="N60" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="O60" s="11" t="s">
+      <c r="O60" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="P60" s="11" t="s">
+      <c r="P60" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11" t="s">
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11" t="s">
+      <c r="S60" s="13"/>
+      <c r="T60" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="U60" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="V60" s="11"/>
+      <c r="U60" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="V60" s="13"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="5" t="s">
@@ -5564,31 +5570,31 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="10" t="s">
+      <c r="L61" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="M61" s="11" t="s">
+      <c r="M61" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="N61" s="11" t="s">
+      <c r="N61" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="O61" s="11" t="s">
+      <c r="O61" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="P61" s="11" t="s">
+      <c r="P61" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11" t="s">
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="U61" s="11" t="s">
+      <c r="U61" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="V61" s="11" t="s">
+      <c r="V61" s="13" t="s">
         <v>394</v>
       </c>
     </row>
@@ -5606,25 +5612,25 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="10" t="s">
+      <c r="L62" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="M62" s="11" t="s">
+      <c r="M62" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="N62" s="11" t="s">
+      <c r="N62" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11"/>
-      <c r="U62" s="11" t="s">
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="13"/>
+      <c r="U62" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="V62" s="11" t="s">
+      <c r="V62" s="13" t="s">
         <v>432</v>
       </c>
     </row>
@@ -5642,27 +5648,27 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="10" t="s">
+      <c r="L63" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="M63" s="11" t="s">
+      <c r="M63" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="N63" s="11" t="s">
+      <c r="N63" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="O63" s="11" t="s">
+      <c r="O63" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11"/>
-      <c r="U63" s="11" t="s">
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
+      <c r="T63" s="13"/>
+      <c r="U63" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="V63" s="11"/>
+      <c r="V63" s="13"/>
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="5" t="s">
@@ -5678,33 +5684,33 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="10" t="s">
+      <c r="L64" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="M64" s="11" t="s">
+      <c r="M64" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="N64" s="11" t="s">
+      <c r="N64" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="O64" s="11" t="s">
+      <c r="O64" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="P64" s="11" t="s">
+      <c r="P64" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11" t="s">
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11" t="s">
+      <c r="S64" s="13"/>
+      <c r="T64" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="U64" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="V64" s="11"/>
+      <c r="U64" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="V64" s="13"/>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="5" t="s">
@@ -5720,31 +5726,31 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="10" t="s">
+      <c r="L65" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="M65" s="11" t="s">
+      <c r="M65" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="N65" s="11" t="s">
+      <c r="N65" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="O65" s="11" t="s">
+      <c r="O65" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="P65" s="11" t="s">
+      <c r="P65" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11"/>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11" t="s">
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="U65" s="11" t="s">
+      <c r="U65" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="V65" s="11" t="s">
+      <c r="V65" s="13" t="s">
         <v>394</v>
       </c>
     </row>
@@ -5762,25 +5768,25 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="10" t="s">
+      <c r="L66" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="M66" s="11" t="s">
+      <c r="M66" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="N66" s="11" t="s">
+      <c r="N66" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="11"/>
-      <c r="R66" s="11"/>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11"/>
-      <c r="U66" s="11" t="s">
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
+      <c r="R66" s="13"/>
+      <c r="S66" s="13"/>
+      <c r="T66" s="13"/>
+      <c r="U66" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="V66" s="11" t="s">
+      <c r="V66" s="13" t="s">
         <v>392</v>
       </c>
     </row>
@@ -5798,27 +5804,27 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="10" t="s">
+      <c r="L67" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="M67" s="11" t="s">
+      <c r="M67" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="N67" s="11" t="s">
+      <c r="N67" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="O67" s="11" t="s">
+      <c r="O67" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="11"/>
-      <c r="R67" s="11"/>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11"/>
-      <c r="U67" s="11" t="s">
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13"/>
+      <c r="S67" s="13"/>
+      <c r="T67" s="13"/>
+      <c r="U67" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="V67" s="11"/>
+      <c r="V67" s="13"/>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="5" t="s">
@@ -5834,33 +5840,33 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="10" t="s">
+      <c r="L68" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="M68" s="11" t="s">
+      <c r="M68" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="N68" s="11" t="s">
+      <c r="N68" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="O68" s="11" t="s">
+      <c r="O68" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="P68" s="11" t="s">
+      <c r="P68" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="Q68" s="11"/>
-      <c r="R68" s="11" t="s">
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11" t="s">
+      <c r="S68" s="13"/>
+      <c r="T68" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="U68" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="V68" s="11"/>
+      <c r="U68" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="V68" s="13"/>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="5" t="s">
@@ -5876,31 +5882,31 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="10" t="s">
+      <c r="L69" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="M69" s="11" t="s">
+      <c r="M69" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="N69" s="11" t="s">
+      <c r="N69" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="O69" s="11" t="s">
+      <c r="O69" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="P69" s="11" t="s">
+      <c r="P69" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="Q69" s="11"/>
-      <c r="R69" s="11"/>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11" t="s">
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13"/>
+      <c r="S69" s="13"/>
+      <c r="T69" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="U69" s="11" t="s">
+      <c r="U69" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="V69" s="11" t="s">
+      <c r="V69" s="13" t="s">
         <v>406</v>
       </c>
     </row>
@@ -5925,7 +5931,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -6113,7 +6119,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -6299,7 +6305,7 @@
         <v>390</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -6437,7 +6443,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6587,7 +6593,7 @@
         <v>395</v>
       </c>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -6725,7 +6731,7 @@
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -6875,7 +6881,7 @@
         <v>397</v>
       </c>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -7063,7 +7069,7 @@
         <v>390</v>
       </c>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -7345,7 +7351,7 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -7481,7 +7487,7 @@
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -7791,7 +7797,7 @@
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -8251,7 +8257,7 @@
         <v>398</v>
       </c>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -8547,7 +8553,7 @@
         <v>395</v>
       </c>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -8685,7 +8691,7 @@
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -8835,7 +8841,7 @@
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -9017,22 +9023,22 @@
       <c r="V133" s="5"/>
     </row>
     <row r="134" spans="1:22">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C134" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
-      <c r="I134" s="5"/>
-      <c r="J134" s="5" t="s">
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2" t="s">
         <v>365</v>
       </c>
       <c r="K134" s="6" t="s">
@@ -9041,19 +9047,19 @@
       <c r="L134" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="M134" s="5" t="s">
+      <c r="M134" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N134" s="5" t="s">
+      <c r="N134" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O134" s="5"/>
-      <c r="P134" s="5"/>
-      <c r="Q134" s="5"/>
-      <c r="R134" s="5"/>
-      <c r="S134" s="5"/>
-      <c r="T134" s="5"/>
-      <c r="U134" s="5" t="s">
+      <c r="O134" s="2"/>
+      <c r="P134" s="2"/>
+      <c r="Q134" s="2"/>
+      <c r="R134" s="2"/>
+      <c r="S134" s="2"/>
+      <c r="T134" s="2"/>
+      <c r="U134" s="2" t="s">
         <v>365</v>
       </c>
       <c r="V134" s="6" t="s">
@@ -9179,7 +9185,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9329,7 +9335,7 @@
         <v>401</v>
       </c>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -9573,7 +9579,7 @@
       </c>
       <c r="K145" s="2"/>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -9709,7 +9715,7 @@
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -9853,7 +9859,7 @@
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -10037,7 +10043,7 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -10259,21 +10265,21 @@
       <c r="V159" s="5"/>
     </row>
     <row r="160" spans="1:22">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B160" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C160" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="5"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
       <c r="J160" s="6" t="s">
         <v>368</v>
       </c>
@@ -10283,18 +10289,18 @@
       <c r="L160" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="M160" s="5" t="s">
+      <c r="M160" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N160" s="5" t="s">
+      <c r="N160" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O160" s="5"/>
-      <c r="P160" s="5"/>
-      <c r="Q160" s="5"/>
-      <c r="R160" s="5"/>
-      <c r="S160" s="5"/>
-      <c r="T160" s="5"/>
+      <c r="O160" s="2"/>
+      <c r="P160" s="2"/>
+      <c r="Q160" s="2"/>
+      <c r="R160" s="2"/>
+      <c r="S160" s="2"/>
+      <c r="T160" s="2"/>
       <c r="U160" s="6" t="s">
         <v>429</v>
       </c>
@@ -10421,7 +10427,7 @@
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N163" s="2" t="s">
@@ -10571,7 +10577,7 @@
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -10753,22 +10759,22 @@
       <c r="V169" s="5"/>
     </row>
     <row r="170" spans="1:22">
-      <c r="A170" s="5" t="s">
+      <c r="A170" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C170" s="5" t="s">
+      <c r="C170" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="5"/>
-      <c r="J170" s="5" t="s">
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2" t="s">
         <v>370</v>
       </c>
       <c r="K170" s="6" t="s">
@@ -10777,19 +10783,19 @@
       <c r="L170" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="M170" s="5" t="s">
+      <c r="M170" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="N170" s="5" t="s">
+      <c r="N170" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O170" s="5"/>
-      <c r="P170" s="5"/>
-      <c r="Q170" s="5"/>
-      <c r="R170" s="5"/>
-      <c r="S170" s="5"/>
-      <c r="T170" s="5"/>
-      <c r="U170" s="5" t="s">
+      <c r="O170" s="2"/>
+      <c r="P170" s="2"/>
+      <c r="Q170" s="2"/>
+      <c r="R170" s="2"/>
+      <c r="S170" s="2"/>
+      <c r="T170" s="2"/>
+      <c r="U170" s="2" t="s">
         <v>370</v>
       </c>
       <c r="V170" s="6" t="s">
@@ -10915,7 +10921,7 @@
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -11067,7 +11073,7 @@
         <v>407</v>
       </c>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -11213,7 +11219,7 @@
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -11769,7 +11775,7 @@
       </c>
       <c r="K190" s="2"/>
       <c r="L190" s="4"/>
-      <c r="M190" s="2" t="s">
+      <c r="M190" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N190" s="2" t="s">
@@ -11917,7 +11923,7 @@
         <v>408</v>
       </c>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -12123,7 +12129,7 @@
       </c>
       <c r="K197" s="2"/>
       <c r="L197" s="4"/>
-      <c r="M197" s="2" t="s">
+      <c r="M197" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N197" s="2" t="s">
@@ -12273,7 +12279,7 @@
         <v>409</v>
       </c>
       <c r="L200" s="4"/>
-      <c r="M200" s="2" t="s">
+      <c r="M200" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N200" s="2" t="s">
@@ -12389,23 +12395,23 @@
       <c r="V202" s="5"/>
     </row>
     <row r="203" spans="1:22">
-      <c r="A203" s="5" t="s">
+      <c r="A203" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B203" s="5" t="s">
+      <c r="B203" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C203" s="5" t="s">
+      <c r="C203" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="5" t="s">
+      <c r="D203" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E203" s="5"/>
-      <c r="F203" s="5"/>
-      <c r="G203" s="5"/>
-      <c r="H203" s="5"/>
-      <c r="I203" s="5"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
       <c r="J203" s="6" t="s">
         <v>348</v>
       </c>
@@ -12413,20 +12419,20 @@
       <c r="L203" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="M203" s="5" t="s">
+      <c r="M203" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N203" s="5" t="s">
+      <c r="N203" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O203" s="5" t="s">
+      <c r="O203" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P203" s="5"/>
-      <c r="Q203" s="5"/>
-      <c r="R203" s="5"/>
-      <c r="S203" s="5"/>
-      <c r="T203" s="5"/>
+      <c r="P203" s="2"/>
+      <c r="Q203" s="2"/>
+      <c r="R203" s="2"/>
+      <c r="S203" s="2"/>
+      <c r="T203" s="2"/>
       <c r="U203" s="6" t="s">
         <v>430</v>
       </c>
@@ -12621,7 +12627,7 @@
       </c>
       <c r="K207" s="2"/>
       <c r="L207" s="4"/>
-      <c r="M207" s="2" t="s">
+      <c r="M207" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N207" s="2" t="s">
@@ -12773,7 +12779,7 @@
         <v>410</v>
       </c>
       <c r="L210" s="4"/>
-      <c r="M210" s="2" t="s">
+      <c r="M210" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N210" s="2" t="s">
@@ -12921,7 +12927,7 @@
       </c>
       <c r="K213" s="2"/>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N213" s="2" t="s">
@@ -13125,7 +13131,7 @@
         <v>412</v>
       </c>
       <c r="L217" s="4"/>
-      <c r="M217" s="2" t="s">
+      <c r="M217" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N217" s="2" t="s">
@@ -13521,7 +13527,7 @@
         <v>413</v>
       </c>
       <c r="L225" s="4"/>
-      <c r="M225" s="2" t="s">
+      <c r="M225" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N225" s="2" t="s">
@@ -13855,7 +13861,7 @@
         <v>414</v>
       </c>
       <c r="L232" s="4"/>
-      <c r="M232" s="2" t="s">
+      <c r="M232" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N232" s="2" t="s">
@@ -13993,7 +13999,7 @@
       </c>
       <c r="K235" s="2"/>
       <c r="L235" s="4"/>
-      <c r="M235" s="2" t="s">
+      <c r="M235" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N235" s="2" t="s">
@@ -14137,7 +14143,7 @@
       </c>
       <c r="K238" s="2"/>
       <c r="L238" s="4"/>
-      <c r="M238" s="2" t="s">
+      <c r="M238" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N238" s="2" t="s">
@@ -14275,7 +14281,7 @@
         <v>415</v>
       </c>
       <c r="L241" s="4"/>
-      <c r="M241" s="2" t="s">
+      <c r="M241" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N241" s="2" t="s">
@@ -14423,7 +14429,7 @@
       </c>
       <c r="K244" s="2"/>
       <c r="L244" s="4"/>
-      <c r="M244" s="2" t="s">
+      <c r="M244" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N244" s="2" t="s">
@@ -14735,7 +14741,7 @@
         <v>414</v>
       </c>
       <c r="L250" s="4"/>
-      <c r="M250" s="2" t="s">
+      <c r="M250" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N250" s="2" t="s">
@@ -15007,7 +15013,7 @@
       </c>
       <c r="K256" s="2"/>
       <c r="L256" s="4"/>
-      <c r="M256" s="2" t="s">
+      <c r="M256" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N256" s="2" t="s">
@@ -15157,7 +15163,7 @@
         <v>418</v>
       </c>
       <c r="L259" s="4"/>
-      <c r="M259" s="2" t="s">
+      <c r="M259" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N259" s="2" t="s">
@@ -15295,7 +15301,7 @@
       </c>
       <c r="K262" s="2"/>
       <c r="L262" s="4"/>
-      <c r="M262" s="2" t="s">
+      <c r="M262" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N262" s="2" t="s">
@@ -15441,7 +15447,7 @@
       </c>
       <c r="K265" s="2"/>
       <c r="L265" s="4"/>
-      <c r="M265" s="2" t="s">
+      <c r="M265" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N265" s="2" t="s">
@@ -15589,7 +15595,7 @@
       </c>
       <c r="K268" s="2"/>
       <c r="L268" s="4"/>
-      <c r="M268" s="2" t="s">
+      <c r="M268" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N268" s="2" t="s">
@@ -15725,7 +15731,7 @@
       </c>
       <c r="K271" s="2"/>
       <c r="L271" s="4"/>
-      <c r="M271" s="2" t="s">
+      <c r="M271" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N271" s="2" t="s">
@@ -15875,7 +15881,7 @@
         <v>419</v>
       </c>
       <c r="L274" s="4"/>
-      <c r="M274" s="2" t="s">
+      <c r="M274" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N274" s="2" t="s">
@@ -16171,7 +16177,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" s="4"/>
-      <c r="M280" s="2" t="s">
+      <c r="M280" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N280" s="2" t="s">
@@ -16375,7 +16381,7 @@
         <v>420</v>
       </c>
       <c r="L284" s="4"/>
-      <c r="M284" s="2" t="s">
+      <c r="M284" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N284" s="2" t="s">
@@ -16765,7 +16771,7 @@
       </c>
       <c r="K292" s="2"/>
       <c r="L292" s="4"/>
-      <c r="M292" s="2" t="s">
+      <c r="M292" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N292" s="2"/>
